--- a/data/contracts.xlsx
+++ b/data/contracts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmage\Desktop\MATH_437_FP\hockey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601967F9-2594-4482-90BF-6949293C2680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01839741-9867-4D56-9FD2-634FF63D50F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2641,12 +2641,6 @@
     <t>Charlie Coyle </t>
   </si>
   <si>
-    <t>Alexander Radulov  </t>
-  </si>
-  <si>
-    <t>Alexander Killorn  </t>
-  </si>
-  <si>
     <t>Thomas Wilson </t>
   </si>
   <si>
@@ -2710,9 +2704,6 @@
     <t>Ben Bishop  </t>
   </si>
   <si>
-    <t>Alexander Wennberg </t>
-  </si>
-  <si>
     <t>Oscar Klefbom </t>
   </si>
   <si>
@@ -2851,9 +2842,6 @@
     <t>Connor Murphy </t>
   </si>
   <si>
-    <t>Alexander Steen </t>
-  </si>
-  <si>
     <t>Rickard Rakell </t>
   </si>
   <si>
@@ -2944,9 +2932,6 @@
     <t>Darren Helm </t>
   </si>
   <si>
-    <t>Alexander Debrincat </t>
-  </si>
-  <si>
     <t>Justin Braun </t>
   </si>
   <si>
@@ -3049,9 +3034,6 @@
     <t>Bryan Rust </t>
   </si>
   <si>
-    <t>Alexander Kerfoot </t>
-  </si>
-  <si>
     <t>Brett Connolly </t>
   </si>
   <si>
@@ -3109,9 +3091,6 @@
     <t>Antoine Roussel  </t>
   </si>
   <si>
-    <t>Alexander Edler  </t>
-  </si>
-  <si>
     <t>Marcus Foligno </t>
   </si>
   <si>
@@ -3475,9 +3454,6 @@
     <t>Adam Boqvist  </t>
   </si>
   <si>
-    <t>Alexander Nylander  </t>
-  </si>
-  <si>
     <t>Filip Zadina  </t>
   </si>
   <si>
@@ -3889,9 +3865,6 @@
     <t>Mason Shaw  </t>
   </si>
   <si>
-    <t>Alexander Debrincat  </t>
-  </si>
-  <si>
     <t>Samuel Girard  </t>
   </si>
   <si>
@@ -3916,9 +3889,6 @@
     <t>Linus Soderstrom  </t>
   </si>
   <si>
-    <t>Alexander Georgiev  </t>
-  </si>
-  <si>
     <t>Maxime Fortier  </t>
   </si>
   <si>
@@ -4652,6 +4622,36 @@
   </si>
   <si>
     <t>Connor Brickley  </t>
+  </si>
+  <si>
+    <t>Alex Debrincat </t>
+  </si>
+  <si>
+    <t>Alex Debrincat  </t>
+  </si>
+  <si>
+    <t>Alex Radulov  </t>
+  </si>
+  <si>
+    <t>Alex Killorn  </t>
+  </si>
+  <si>
+    <t>Alex Wennberg </t>
+  </si>
+  <si>
+    <t>Alex Steen </t>
+  </si>
+  <si>
+    <t>Alex Kerfoot </t>
+  </si>
+  <si>
+    <t>Alex Edler  </t>
+  </si>
+  <si>
+    <t>Alex Nylander  </t>
+  </si>
+  <si>
+    <t>Alex Georgiev  </t>
   </si>
 </sst>
 </file>
@@ -5542,10 +5542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I860"/>
+  <dimension ref="A1:I861"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5587,7 +5588,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>180</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>181</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>182</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>183</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>184</v>
       </c>
@@ -5722,7 +5723,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>185</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>186</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>187</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>188</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>189</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>190</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>191</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>192</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>193</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>194</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>195</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>196</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>197</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>198</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>199</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>200</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>201</v>
       </c>
@@ -6181,7 +6182,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>202</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>203</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>204</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>205</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>206</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>207</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>208</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>209</v>
       </c>
@@ -6397,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>210</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>211</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>212</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>213</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
         <v>214</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>215</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>217</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>218</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>219</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>220</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>221</v>
       </c>
@@ -6721,7 +6722,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
         <v>222</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>223</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>224</v>
       </c>
@@ -6802,7 +6803,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>225</v>
       </c>
@@ -6829,7 +6830,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>226</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>227</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>228</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
         <v>229</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>230</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
         <v>231</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>232</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>233</v>
       </c>
@@ -7045,7 +7046,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>187</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>234</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>235</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>236</v>
       </c>
@@ -7153,7 +7154,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>237</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>238</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>239</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>240</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
         <v>241</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
         <v>242</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>243</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
         <v>244</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
         <v>245</v>
       </c>
@@ -7396,7 +7397,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>246</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>247</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>248</v>
       </c>
@@ -7477,7 +7478,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>249</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>250</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>251</v>
       </c>
@@ -7558,7 +7559,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
         <v>252</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
         <v>253</v>
       </c>
@@ -7612,7 +7613,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
         <v>254</v>
       </c>
@@ -7639,7 +7640,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
         <v>255</v>
       </c>
@@ -7666,7 +7667,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
         <v>256</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
         <v>257</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
         <v>209</v>
       </c>
@@ -7747,7 +7748,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
         <v>258</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
         <v>259</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
         <v>260</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
         <v>261</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
         <v>263</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
         <v>264</v>
       </c>
@@ -7936,7 +7937,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
         <v>265</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
         <v>266</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
         <v>267</v>
       </c>
@@ -8017,7 +8018,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
         <v>268</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
         <v>269</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
         <v>271</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
         <v>272</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
         <v>273</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
         <v>274</v>
       </c>
@@ -8206,7 +8207,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
         <v>275</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
         <v>276</v>
       </c>
@@ -8260,7 +8261,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
         <v>277</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
         <v>278</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
         <v>279</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
         <v>280</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
         <v>281</v>
       </c>
@@ -8395,7 +8396,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
         <v>282</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
         <v>283</v>
       </c>
@@ -8449,7 +8450,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
         <v>284</v>
       </c>
@@ -8503,7 +8504,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
         <v>286</v>
       </c>
@@ -8557,7 +8558,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
         <v>288</v>
       </c>
@@ -8584,7 +8585,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
         <v>289</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
         <v>290</v>
       </c>
@@ -8638,7 +8639,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
         <v>291</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
         <v>292</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
         <v>294</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
         <v>295</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
         <v>296</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2" t="s">
         <v>297</v>
       </c>
@@ -8827,7 +8828,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
         <v>298</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
         <v>299</v>
       </c>
@@ -8881,7 +8882,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
         <v>300</v>
       </c>
@@ -8908,7 +8909,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
         <v>301</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
         <v>302</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
         <v>303</v>
       </c>
@@ -8989,7 +8990,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
         <v>304</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
         <v>305</v>
       </c>
@@ -9043,7 +9044,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
         <v>306</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
         <v>307</v>
       </c>
@@ -9097,7 +9098,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
         <v>308</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
         <v>309</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2" t="s">
         <v>310</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
         <v>312</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2" t="s">
         <v>313</v>
       </c>
@@ -9259,7 +9260,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2" t="s">
         <v>314</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2" t="s">
         <v>315</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2" t="s">
         <v>316</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2" t="s">
         <v>317</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2" t="s">
         <v>318</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2" t="s">
         <v>319</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2" t="s">
         <v>320</v>
       </c>
@@ -9475,7 +9476,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2" t="s">
         <v>213</v>
       </c>
@@ -9502,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2" t="s">
         <v>322</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2" t="s">
         <v>323</v>
       </c>
@@ -9556,7 +9557,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2" t="s">
         <v>324</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2" t="s">
         <v>325</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2" t="s">
         <v>326</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2" t="s">
         <v>327</v>
       </c>
@@ -9664,7 +9665,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2" t="s">
         <v>328</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2" t="s">
         <v>329</v>
       </c>
@@ -9718,7 +9719,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2" t="s">
         <v>330</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2" t="s">
         <v>332</v>
       </c>
@@ -9799,9 +9800,9 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2" t="s">
-        <v>333</v>
+        <v>996</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>9</v>
@@ -9826,9 +9827,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2" t="s">
-        <v>334</v>
+        <v>997</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>3</v>
@@ -9853,9 +9854,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>9</v>
@@ -9880,9 +9881,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>3</v>
@@ -9907,9 +9908,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>2</v>
@@ -9934,9 +9935,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>11</v>
@@ -9961,9 +9962,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>3</v>
@@ -9988,9 +9989,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>3</v>
@@ -10015,9 +10016,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>0</v>
@@ -10042,9 +10043,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>2</v>
@@ -10069,7 +10070,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2" t="s">
         <v>218</v>
       </c>
@@ -10096,9 +10097,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>9</v>
@@ -10123,9 +10124,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>2</v>
@@ -10150,9 +10151,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>2</v>
@@ -10177,9 +10178,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>2</v>
@@ -10204,9 +10205,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>3</v>
@@ -10231,9 +10232,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>3</v>
@@ -10258,9 +10259,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>3</v>
@@ -10287,7 +10288,7 @@
     </row>
     <row r="176" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>3</v>
@@ -10312,9 +10313,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>0</v>
@@ -10339,9 +10340,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>2</v>
@@ -10366,9 +10367,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>0</v>
@@ -10393,9 +10394,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>2</v>
@@ -10420,9 +10421,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>11</v>
@@ -10447,9 +10448,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="2" t="s">
-        <v>356</v>
+        <v>998</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>3</v>
@@ -10474,9 +10475,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>2</v>
@@ -10501,9 +10502,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>3</v>
@@ -10528,9 +10529,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>3</v>
@@ -10555,7 +10556,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="2" t="s">
         <v>261</v>
       </c>
@@ -10582,9 +10583,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>0</v>
@@ -10609,9 +10610,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>3</v>
@@ -10636,9 +10637,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>3</v>
@@ -10663,9 +10664,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>9</v>
@@ -10690,9 +10691,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>0</v>
@@ -10717,7 +10718,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="2" t="s">
         <v>202</v>
       </c>
@@ -10744,9 +10745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>2</v>
@@ -10771,9 +10772,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>9</v>
@@ -10798,9 +10799,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>0</v>
@@ -10825,9 +10826,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>2</v>
@@ -10852,9 +10853,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>2</v>
@@ -10879,9 +10880,9 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>2</v>
@@ -10906,9 +10907,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>3</v>
@@ -10933,9 +10934,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>3</v>
@@ -10960,9 +10961,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>2</v>
@@ -10987,9 +10988,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>3</v>
@@ -11014,9 +11015,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>0</v>
@@ -11041,9 +11042,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>3</v>
@@ -11068,9 +11069,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>9</v>
@@ -11095,9 +11096,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>0</v>
@@ -11122,9 +11123,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>9</v>
@@ -11149,9 +11150,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>9</v>
@@ -11178,7 +11179,7 @@
     </row>
     <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>3</v>
@@ -11203,9 +11204,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>11</v>
@@ -11230,9 +11231,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>3</v>
@@ -11257,9 +11258,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>2</v>
@@ -11284,9 +11285,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>2</v>
@@ -11311,9 +11312,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>2</v>
@@ -11338,9 +11339,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>9</v>
@@ -11365,9 +11366,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>2</v>
@@ -11392,9 +11393,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>11</v>
@@ -11419,9 +11420,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>2</v>
@@ -11446,9 +11447,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>3</v>
@@ -11473,9 +11474,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>2</v>
@@ -11500,9 +11501,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>2</v>
@@ -11527,9 +11528,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>3</v>
@@ -11554,9 +11555,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>0</v>
@@ -11581,9 +11582,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>3</v>
@@ -11608,9 +11609,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>3</v>
@@ -11635,9 +11636,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>0</v>
@@ -11662,9 +11663,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>2</v>
@@ -11689,9 +11690,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>9</v>
@@ -11716,9 +11717,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>2</v>
@@ -11743,9 +11744,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>2</v>
@@ -11770,9 +11771,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="2" t="s">
-        <v>403</v>
+        <v>999</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>0</v>
@@ -11797,9 +11798,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>3</v>
@@ -11826,7 +11827,7 @@
     </row>
     <row r="233" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>3</v>
@@ -11851,9 +11852,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>2</v>
@@ -11880,7 +11881,7 @@
     </row>
     <row r="235" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>2</v>
@@ -11905,9 +11906,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>2</v>
@@ -11932,9 +11933,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>9</v>
@@ -11959,9 +11960,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>3</v>
@@ -11986,9 +11987,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>2</v>
@@ -12013,9 +12014,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>2</v>
@@ -12040,9 +12041,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>9</v>
@@ -12067,9 +12068,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>3</v>
@@ -12094,9 +12095,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>9</v>
@@ -12121,9 +12122,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>2</v>
@@ -12148,9 +12149,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>3</v>
@@ -12175,9 +12176,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>0</v>
@@ -12202,9 +12203,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>0</v>
@@ -12229,9 +12230,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>11</v>
@@ -12256,9 +12257,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>3</v>
@@ -12283,9 +12284,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>2</v>
@@ -12310,9 +12311,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>3</v>
@@ -12339,7 +12340,7 @@
     </row>
     <row r="252" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>0</v>
@@ -12364,7 +12365,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="2" t="s">
         <v>240</v>
       </c>
@@ -12391,9 +12392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>3</v>
@@ -12418,7 +12419,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="2" t="s">
         <v>242</v>
       </c>
@@ -12445,9 +12446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>2</v>
@@ -12472,9 +12473,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>2</v>
@@ -12499,9 +12500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>3</v>
@@ -12526,9 +12527,9 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>11</v>
@@ -12553,9 +12554,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>2</v>
@@ -12580,9 +12581,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>2</v>
@@ -12607,9 +12608,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>3</v>
@@ -12636,7 +12637,7 @@
     </row>
     <row r="263" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>2</v>
@@ -12661,9 +12662,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>3</v>
@@ -12688,9 +12689,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="2" t="s">
-        <v>434</v>
+        <v>994</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>9</v>
@@ -12715,9 +12716,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>2</v>
@@ -12742,7 +12743,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="2" t="s">
         <v>260</v>
       </c>
@@ -12769,9 +12770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>2</v>
@@ -12796,9 +12797,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>9</v>
@@ -12823,9 +12824,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>9</v>
@@ -12850,9 +12851,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>3</v>
@@ -12877,9 +12878,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>2</v>
@@ -12904,9 +12905,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>11</v>
@@ -12931,9 +12932,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>3</v>
@@ -12958,9 +12959,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>11</v>
@@ -12985,9 +12986,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>3</v>
@@ -13012,9 +13013,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>3</v>
@@ -13039,9 +13040,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>2</v>
@@ -13066,9 +13067,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>2</v>
@@ -13093,9 +13094,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>3</v>
@@ -13120,9 +13121,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>2</v>
@@ -13147,9 +13148,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>2</v>
@@ -13174,9 +13175,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>2</v>
@@ -13201,9 +13202,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>2</v>
@@ -13228,9 +13229,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>2</v>
@@ -13255,9 +13256,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>0</v>
@@ -13282,9 +13283,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>0</v>
@@ -13309,7 +13310,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="2" t="s">
         <v>332</v>
       </c>
@@ -13336,9 +13337,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>9</v>
@@ -13363,9 +13364,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>2</v>
@@ -13390,9 +13391,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>3</v>
@@ -13417,9 +13418,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>3</v>
@@ -13444,9 +13445,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>3</v>
@@ -13471,9 +13472,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>0</v>
@@ -13498,9 +13499,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>2</v>
@@ -13525,9 +13526,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>3</v>
@@ -13552,9 +13553,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>2</v>
@@ -13579,9 +13580,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>3</v>
@@ -13606,9 +13607,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>0</v>
@@ -13633,9 +13634,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>3</v>
@@ -13660,9 +13661,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>9</v>
@@ -13687,9 +13688,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="2" t="s">
-        <v>469</v>
+        <v>1000</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>3</v>
@@ -13714,9 +13715,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>9</v>
@@ -13741,9 +13742,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>9</v>
@@ -13768,9 +13769,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>2</v>
@@ -13795,9 +13796,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>3</v>
@@ -13822,9 +13823,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>0</v>
@@ -13849,9 +13850,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>9</v>
@@ -13876,9 +13877,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>11</v>
@@ -13903,9 +13904,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>2</v>
@@ -13930,9 +13931,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>2</v>
@@ -13957,9 +13958,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>3</v>
@@ -13984,9 +13985,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>9</v>
@@ -14011,9 +14012,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>2</v>
@@ -14038,9 +14039,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>11</v>
@@ -14065,9 +14066,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>2</v>
@@ -14092,9 +14093,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>0</v>
@@ -14119,9 +14120,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>9</v>
@@ -14146,9 +14147,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>3</v>
@@ -14173,9 +14174,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>3</v>
@@ -14200,9 +14201,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>0</v>
@@ -14227,9 +14228,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="2" t="s">
-        <v>489</v>
+        <v>1001</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>2</v>
@@ -14254,9 +14255,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>0</v>
@@ -14281,9 +14282,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>3</v>
@@ -14308,9 +14309,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>3</v>
@@ -14335,9 +14336,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>3</v>
@@ -14362,9 +14363,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>2</v>
@@ -14389,9 +14390,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>11</v>
@@ -14416,9 +14417,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>3</v>
@@ -14443,9 +14444,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>2</v>
@@ -14470,9 +14471,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>2</v>
@@ -14497,9 +14498,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>3</v>
@@ -14524,9 +14525,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>3</v>
@@ -14551,9 +14552,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>2</v>
@@ -14578,9 +14579,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>0</v>
@@ -14605,9 +14606,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>9</v>
@@ -14632,9 +14633,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>0</v>
@@ -14659,9 +14660,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>11</v>
@@ -14686,9 +14687,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>2</v>
@@ -14713,9 +14714,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>2</v>
@@ -14740,9 +14741,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>9</v>
@@ -14767,9 +14768,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>9</v>
@@ -14794,9 +14795,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>9</v>
@@ -14821,9 +14822,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>0</v>
@@ -14848,7 +14849,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="2" t="s">
         <v>196</v>
       </c>
@@ -14875,9 +14876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>2</v>
@@ -14902,9 +14903,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>3</v>
@@ -14929,9 +14930,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>0</v>
@@ -14956,9 +14957,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>9</v>
@@ -14983,9 +14984,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>2</v>
@@ -15010,9 +15011,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>0</v>
@@ -15039,7 +15040,7 @@
     </row>
     <row r="352" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>3</v>
@@ -15064,9 +15065,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>9</v>
@@ -15091,9 +15092,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>11</v>
@@ -15118,9 +15119,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>0</v>
@@ -15145,9 +15146,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>11</v>
@@ -15172,9 +15173,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>2</v>
@@ -15199,9 +15200,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>11</v>
@@ -15226,9 +15227,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>0</v>
@@ -15253,9 +15254,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>2</v>
@@ -15280,9 +15281,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>2</v>
@@ -15307,9 +15308,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>2</v>
@@ -15334,9 +15335,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="2" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>2</v>
@@ -15363,7 +15364,7 @@
     </row>
     <row r="364" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>0</v>
@@ -15388,9 +15389,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>9</v>
@@ -15415,9 +15416,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>2</v>
@@ -15442,9 +15443,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>11</v>
@@ -15469,9 +15470,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>9</v>
@@ -15496,9 +15497,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>3</v>
@@ -15523,9 +15524,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>9</v>
@@ -15550,9 +15551,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>3</v>
@@ -15577,9 +15578,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>3</v>
@@ -15604,9 +15605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>3</v>
@@ -15631,9 +15632,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="2" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>2</v>
@@ -15658,9 +15659,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>0</v>
@@ -15685,9 +15686,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>11</v>
@@ -15712,9 +15713,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>2</v>
@@ -15739,9 +15740,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>3</v>
@@ -15766,9 +15767,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>11</v>
@@ -15793,9 +15794,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>3</v>
@@ -15820,9 +15821,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="2" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>0</v>
@@ -15847,9 +15848,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="2" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>11</v>
@@ -15874,9 +15875,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>0</v>
@@ -15901,9 +15902,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>2</v>
@@ -15928,9 +15929,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>0</v>
@@ -15955,9 +15956,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>3</v>
@@ -15982,9 +15983,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>11</v>
@@ -16009,9 +16010,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>3</v>
@@ -16036,9 +16037,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>2</v>
@@ -16063,9 +16064,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>3</v>
@@ -16090,9 +16091,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>3</v>
@@ -16117,9 +16118,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>3</v>
@@ -16144,9 +16145,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>3</v>
@@ -16171,9 +16172,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="2" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>9</v>
@@ -16198,9 +16199,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>0</v>
@@ -16227,7 +16228,7 @@
     </row>
     <row r="396" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="2" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>3</v>
@@ -16252,9 +16253,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>11</v>
@@ -16279,9 +16280,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>9</v>
@@ -16306,9 +16307,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>3</v>
@@ -16333,9 +16334,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="2" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>2</v>
@@ -16360,9 +16361,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>0</v>
@@ -16387,9 +16388,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>3</v>
@@ -16414,9 +16415,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>2</v>
@@ -16441,9 +16442,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>2</v>
@@ -16468,9 +16469,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>3</v>
@@ -16495,9 +16496,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>2</v>
@@ -16522,9 +16523,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>2</v>
@@ -16549,9 +16550,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>3</v>
@@ -16576,9 +16577,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>0</v>
@@ -16603,9 +16604,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>3</v>
@@ -16630,9 +16631,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>9</v>
@@ -16657,9 +16658,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>0</v>
@@ -16684,9 +16685,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>3</v>
@@ -16711,9 +16712,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="2" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>2</v>
@@ -16738,9 +16739,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="2" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>2</v>
@@ -16765,9 +16766,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>2</v>
@@ -16792,9 +16793,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>2</v>
@@ -16819,9 +16820,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="2" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>0</v>
@@ -16846,7 +16847,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="2" t="s">
         <v>250</v>
       </c>
@@ -16873,9 +16874,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>9</v>
@@ -16900,9 +16901,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>11</v>
@@ -16927,9 +16928,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>3</v>
@@ -16954,9 +16955,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>2</v>
@@ -16981,9 +16982,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>3</v>
@@ -17008,9 +17009,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>0</v>
@@ -17035,9 +17036,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>0</v>
@@ -17062,9 +17063,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>2</v>
@@ -17089,9 +17090,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>2</v>
@@ -17116,9 +17117,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>3</v>
@@ -17143,9 +17144,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>3</v>
@@ -17170,9 +17171,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>9</v>
@@ -17197,9 +17198,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>3</v>
@@ -17224,9 +17225,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>9</v>
@@ -17251,9 +17252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>2</v>
@@ -17278,9 +17279,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>2</v>
@@ -17305,9 +17306,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>3</v>
@@ -17332,9 +17333,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="2" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>0</v>
@@ -17359,9 +17360,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>9</v>
@@ -17386,9 +17387,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>9</v>
@@ -17413,9 +17414,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="2" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>9</v>
@@ -17440,9 +17441,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>2</v>
@@ -17467,9 +17468,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>11</v>
@@ -17494,9 +17495,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>11</v>
@@ -17521,9 +17522,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="2" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>3</v>
@@ -17548,9 +17549,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="2" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>2</v>
@@ -17575,9 +17576,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="2" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>2</v>
@@ -17602,9 +17603,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>2</v>
@@ -17629,9 +17630,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>2</v>
@@ -17658,7 +17659,7 @@
     </row>
     <row r="449" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="2" t="s">
-        <v>611</v>
+        <v>1002</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>9</v>
@@ -17683,9 +17684,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>9</v>
@@ -17710,9 +17711,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>9</v>
@@ -17737,9 +17738,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>11</v>
@@ -17764,9 +17765,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>3</v>
@@ -17791,9 +17792,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>3</v>
@@ -17818,9 +17819,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>11</v>
@@ -17845,9 +17846,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>2</v>
@@ -17872,9 +17873,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>9</v>
@@ -17899,9 +17900,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>3</v>
@@ -17926,9 +17927,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>9</v>
@@ -17953,9 +17954,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>11</v>
@@ -17980,9 +17981,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>11</v>
@@ -18007,9 +18008,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>3</v>
@@ -18034,9 +18035,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>3</v>
@@ -18061,9 +18062,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>3</v>
@@ -18088,9 +18089,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>2</v>
@@ -18115,9 +18116,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>3</v>
@@ -18142,9 +18143,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>3</v>
@@ -18169,9 +18170,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>2</v>
@@ -18196,9 +18197,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>0</v>
@@ -18223,9 +18224,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>2</v>
@@ -18252,7 +18253,7 @@
     </row>
     <row r="471" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>3</v>
@@ -18277,9 +18278,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>0</v>
@@ -18304,9 +18305,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>3</v>
@@ -18331,9 +18332,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="2" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>3</v>
@@ -18358,9 +18359,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="2" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>2</v>
@@ -18385,9 +18386,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>0</v>
@@ -18412,9 +18413,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="2" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>0</v>
@@ -18439,9 +18440,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="2" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>3</v>
@@ -18466,9 +18467,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="2" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>0</v>
@@ -18493,9 +18494,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>0</v>
@@ -18520,9 +18521,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="2" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>2</v>
@@ -18547,9 +18548,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="2" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>11</v>
@@ -18574,9 +18575,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="2" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>2</v>
@@ -18601,9 +18602,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>2</v>
@@ -18628,9 +18629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="2" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>3</v>
@@ -18655,9 +18656,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="2" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>2</v>
@@ -18682,9 +18683,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="2" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>3</v>
@@ -18709,9 +18710,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="2" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>11</v>
@@ -18736,9 +18737,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="2" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>2</v>
@@ -18763,9 +18764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="2" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>2</v>
@@ -18790,9 +18791,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="2" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>3</v>
@@ -18817,9 +18818,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>9</v>
@@ -18844,9 +18845,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="2" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>3</v>
@@ -18871,9 +18872,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="2" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>3</v>
@@ -18898,9 +18899,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="2" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>0</v>
@@ -18925,9 +18926,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="2" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>0</v>
@@ -18952,9 +18953,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>0</v>
@@ -18979,9 +18980,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="2" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>2</v>
@@ -19006,9 +19007,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>0</v>
@@ -19033,9 +19034,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="2" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>2</v>
@@ -19060,9 +19061,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>3</v>
@@ -19087,9 +19088,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="2" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>9</v>
@@ -19114,9 +19115,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="2" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>2</v>
@@ -19141,9 +19142,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="2" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>0</v>
@@ -19168,9 +19169,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="2" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>2</v>
@@ -19195,9 +19196,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>0</v>
@@ -19222,9 +19223,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>11</v>
@@ -19249,9 +19250,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="2" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>3</v>
@@ -19276,9 +19277,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>0</v>
@@ -19303,9 +19304,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="2" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>2</v>
@@ -19332,7 +19333,7 @@
     </row>
     <row r="511" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>2</v>
@@ -19357,9 +19358,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="2" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>3</v>
@@ -19384,9 +19385,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>0</v>
@@ -19411,9 +19412,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>3</v>
@@ -19438,9 +19439,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>9</v>
@@ -19465,9 +19466,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>11</v>
@@ -19492,9 +19493,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="2" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>2</v>
@@ -19519,9 +19520,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>11</v>
@@ -19546,9 +19547,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="2" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>0</v>
@@ -19573,9 +19574,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="2" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>3</v>
@@ -19600,9 +19601,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="2" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>3</v>
@@ -19627,9 +19628,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="2" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>0</v>
@@ -19654,9 +19655,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="2" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>2</v>
@@ -19681,9 +19682,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="2" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>2</v>
@@ -19708,9 +19709,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="2" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>2</v>
@@ -19735,9 +19736,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="2" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>3</v>
@@ -19762,9 +19763,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>2</v>
@@ -19789,9 +19790,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="2" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>3</v>
@@ -19816,9 +19817,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="2" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>0</v>
@@ -19843,9 +19844,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="2" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>3</v>
@@ -19870,9 +19871,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="2" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>2</v>
@@ -19897,9 +19898,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="2" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>3</v>
@@ -19924,9 +19925,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="2" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>3</v>
@@ -19951,9 +19952,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="2" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>2</v>
@@ -19978,9 +19979,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="2" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>3</v>
@@ -20005,9 +20006,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>0</v>
@@ -20032,9 +20033,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="2" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>2</v>
@@ -20059,9 +20060,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="2" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>11</v>
@@ -20086,9 +20087,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="2" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>3</v>
@@ -20113,9 +20114,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="2" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>2</v>
@@ -20140,9 +20141,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="2" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>3</v>
@@ -20167,9 +20168,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="2" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>9</v>
@@ -20194,9 +20195,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="2" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>2</v>
@@ -20221,9 +20222,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="2" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>0</v>
@@ -20248,9 +20249,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="2" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>0</v>
@@ -20275,9 +20276,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="2" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>0</v>
@@ -20302,9 +20303,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="2" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>2</v>
@@ -20329,9 +20330,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>2</v>
@@ -20356,9 +20357,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="549" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="2" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>2</v>
@@ -20383,9 +20384,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="550" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="2" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>0</v>
@@ -20410,9 +20411,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="2" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>3</v>
@@ -20437,9 +20438,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="552" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="2" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>2</v>
@@ -20464,9 +20465,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="2" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>0</v>
@@ -20491,9 +20492,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="2" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>9</v>
@@ -20518,9 +20519,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="555" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="2" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>3</v>
@@ -20545,9 +20546,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="2" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>3</v>
@@ -20572,9 +20573,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="2" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>2</v>
@@ -20599,9 +20600,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="2" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>3</v>
@@ -20626,9 +20627,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>9</v>
@@ -20653,9 +20654,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="2" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>9</v>
@@ -20680,9 +20681,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="2" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>3</v>
@@ -20707,9 +20708,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="2" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>3</v>
@@ -20734,9 +20735,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="2" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>3</v>
@@ -20761,9 +20762,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="2" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>2</v>
@@ -20788,9 +20789,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="2" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>3</v>
@@ -20815,9 +20816,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="566" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="2" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>0</v>
@@ -20842,9 +20843,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="2" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>2</v>
@@ -20869,9 +20870,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="2" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>2</v>
@@ -20896,9 +20897,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="2" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>2</v>
@@ -20923,9 +20924,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="570" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="2" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>0</v>
@@ -20950,9 +20951,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="2" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>2</v>
@@ -20977,9 +20978,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="2" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>3</v>
@@ -21004,9 +21005,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>0</v>
@@ -21031,9 +21032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="2" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>9</v>
@@ -21060,7 +21061,7 @@
     </row>
     <row r="575" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="2" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>0</v>
@@ -21085,9 +21086,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="2" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>2</v>
@@ -21112,9 +21113,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="2" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>2</v>
@@ -21139,9 +21140,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="2" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>3</v>
@@ -21166,9 +21167,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="2" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>2</v>
@@ -21193,9 +21194,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="2" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>3</v>
@@ -21220,9 +21221,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="2" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>0</v>
@@ -21247,9 +21248,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="582" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="2" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>2</v>
@@ -21274,9 +21275,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="2" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>3</v>
@@ -21301,9 +21302,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="2" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>2</v>
@@ -21328,9 +21329,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="2" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>3</v>
@@ -21355,9 +21356,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="2" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>2</v>
@@ -21382,9 +21383,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="2" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>2</v>
@@ -21409,9 +21410,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>3</v>
@@ -21436,9 +21437,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="589" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="2" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>3</v>
@@ -21463,9 +21464,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="590" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="2" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>3</v>
@@ -21490,9 +21491,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="2" t="s">
-        <v>749</v>
+        <v>995</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>9</v>
@@ -21519,7 +21520,7 @@
     </row>
     <row r="592" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="2" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>2</v>
@@ -21544,9 +21545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="2" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>11</v>
@@ -21571,9 +21572,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="2" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>2</v>
@@ -21598,9 +21599,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="595" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="2" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>0</v>
@@ -21625,9 +21626,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="2" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>0</v>
@@ -21652,9 +21653,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="2" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>0</v>
@@ -21679,9 +21680,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="2" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>3</v>
@@ -21706,9 +21707,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="2" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>11</v>
@@ -21733,9 +21734,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="2" t="s">
-        <v>758</v>
+        <v>1003</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>11</v>
@@ -21760,9 +21761,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="601" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="2" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>9</v>
@@ -21787,9 +21788,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="2" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>0</v>
@@ -21814,9 +21815,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>2</v>
@@ -21843,7 +21844,7 @@
     </row>
     <row r="604" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="2" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>3</v>
@@ -21868,9 +21869,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="2" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>3</v>
@@ -21895,9 +21896,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="2" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>3</v>
@@ -21924,7 +21925,7 @@
     </row>
     <row r="607" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="2" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>9</v>
@@ -21949,9 +21950,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="2" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>0</v>
@@ -21976,9 +21977,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="609" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="2" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>3</v>
@@ -22003,9 +22004,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="610" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="2" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>2</v>
@@ -22030,9 +22031,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="611" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="2" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>2</v>
@@ -22057,9 +22058,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="2" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>11</v>
@@ -22084,9 +22085,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="613" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="2" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>2</v>
@@ -22111,9 +22112,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="614" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="2" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>2</v>
@@ -22138,9 +22139,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="615" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="2" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>2</v>
@@ -22165,9 +22166,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="2" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>2</v>
@@ -22192,9 +22193,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="617" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>2</v>
@@ -22219,9 +22220,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="2" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>2</v>
@@ -22246,9 +22247,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="2" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>2</v>
@@ -22273,9 +22274,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="620" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="2" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>3</v>
@@ -22300,9 +22301,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="621" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="2" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>11</v>
@@ -22327,9 +22328,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="622" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="2" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>3</v>
@@ -22354,9 +22355,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="623" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="2" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>11</v>
@@ -22381,9 +22382,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="624" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="2" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>3</v>
@@ -22408,9 +22409,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="625" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="2" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>3</v>
@@ -22435,9 +22436,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="626" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="2" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="B626" s="3" t="s">
         <v>0</v>
@@ -22462,9 +22463,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="627" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="2" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>2</v>
@@ -22489,9 +22490,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="628" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="2" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>9</v>
@@ -22516,9 +22517,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="629" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>3</v>
@@ -22543,9 +22544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="2" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>0</v>
@@ -22570,9 +22571,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="631" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="2" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B631" s="3" t="s">
         <v>0</v>
@@ -22597,9 +22598,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="632" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="2" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>0</v>
@@ -22624,9 +22625,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="633" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="2" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="B633" s="3" t="s">
         <v>2</v>
@@ -22651,9 +22652,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="634" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="2" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>0</v>
@@ -22678,9 +22679,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="635" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="2" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>2</v>
@@ -22707,7 +22708,7 @@
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="2" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>3</v>
@@ -22732,9 +22733,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="637" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="2" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>0</v>
@@ -22759,9 +22760,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="2" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>2</v>
@@ -22786,9 +22787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="2" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>11</v>
@@ -22813,9 +22814,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="2" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>3</v>
@@ -22840,9 +22841,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="2" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>2</v>
@@ -22867,9 +22868,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="642" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>11</v>
@@ -22894,9 +22895,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="643" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="2" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>3</v>
@@ -22921,9 +22922,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="644" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="2" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>3</v>
@@ -22948,9 +22949,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="645" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="2" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="B645" s="3" t="s">
         <v>2</v>
@@ -22975,9 +22976,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="646" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="2" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>3</v>
@@ -23002,9 +23003,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="647" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="2" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>3</v>
@@ -23029,9 +23030,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="648" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="2" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>2</v>
@@ -23056,9 +23057,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="649" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="2" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>3</v>
@@ -23083,9 +23084,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="650" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="2" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>11</v>
@@ -23110,9 +23111,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="2" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>2</v>
@@ -23139,7 +23140,7 @@
     </row>
     <row r="652" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="2" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>2</v>
@@ -23166,7 +23167,7 @@
     </row>
     <row r="653" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="2" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B653" s="3" t="s">
         <v>2</v>
@@ -23191,9 +23192,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="654" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="2" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>2</v>
@@ -23218,9 +23219,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="655" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="2" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>11</v>
@@ -23245,9 +23246,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="656" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="2" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>11</v>
@@ -23272,9 +23273,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="657" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="2" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>2</v>
@@ -23299,9 +23300,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="658" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="2" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>11</v>
@@ -23326,9 +23327,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="659" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="2" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>2</v>
@@ -23353,9 +23354,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="660" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="2" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>3</v>
@@ -23380,9 +23381,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="661" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="2" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="B661" s="3" t="s">
         <v>2</v>
@@ -23407,9 +23408,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="662" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="2" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B662" s="3" t="s">
         <v>2</v>
@@ -23434,9 +23435,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="663" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="2" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>11</v>
@@ -23461,9 +23462,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="664" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="2" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>11</v>
@@ -23488,9 +23489,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="665" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="2" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B665" s="3" t="s">
         <v>0</v>
@@ -23515,9 +23516,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="666" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="2" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B666" s="3" t="s">
         <v>3</v>
@@ -23542,9 +23543,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="667" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="2" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>3</v>
@@ -23569,9 +23570,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="2" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>0</v>
@@ -23596,9 +23597,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="669" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="2" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>0</v>
@@ -23623,9 +23624,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="670" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="2" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>2</v>
@@ -23650,9 +23651,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="671" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="2" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B671" s="3" t="s">
         <v>3</v>
@@ -23677,9 +23678,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="672" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="2" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>0</v>
@@ -23704,9 +23705,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="673" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="2" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>2</v>
@@ -23731,9 +23732,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="674" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="2" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>2</v>
@@ -23758,9 +23759,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="675" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="2" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>0</v>
@@ -23785,9 +23786,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="2" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>0</v>
@@ -23812,9 +23813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="2" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>3</v>
@@ -23839,9 +23840,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="678" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="2" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>2</v>
@@ -23866,9 +23867,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="679" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="2" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>0</v>
@@ -23893,9 +23894,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>3</v>
@@ -23920,9 +23921,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="681" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="2" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>2</v>
@@ -23947,9 +23948,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="682" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="2" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>9</v>
@@ -23974,9 +23975,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="683" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="2" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>3</v>
@@ -24001,9 +24002,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="2" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>2</v>
@@ -24028,9 +24029,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="685" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="2" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>0</v>
@@ -24055,9 +24056,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="686" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="2" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>2</v>
@@ -24082,9 +24083,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="687" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="2" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>0</v>
@@ -24109,9 +24110,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="2" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>0</v>
@@ -24136,9 +24137,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="689" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="2" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>2</v>
@@ -24163,9 +24164,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="2" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>11</v>
@@ -24190,9 +24191,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="691" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="2" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>2</v>
@@ -24217,9 +24218,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="692" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="2" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>2</v>
@@ -24244,9 +24245,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="693" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="2" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>3</v>
@@ -24271,9 +24272,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="694" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="2" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>2</v>
@@ -24298,9 +24299,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="695" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="2" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>11</v>
@@ -24325,9 +24326,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="696" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="2" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>2</v>
@@ -24352,9 +24353,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="697" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="2" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>2</v>
@@ -24379,9 +24380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="2" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>3</v>
@@ -24406,9 +24407,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="699" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="2" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>0</v>
@@ -24433,9 +24434,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="700" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="2" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>0</v>
@@ -24460,9 +24461,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="701" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="2" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>2</v>
@@ -24487,9 +24488,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="2" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>2</v>
@@ -24514,9 +24515,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="703" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="2" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>3</v>
@@ -24541,9 +24542,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="704" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="2" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>0</v>
@@ -24568,9 +24569,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="705" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="2" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>9</v>
@@ -24595,9 +24596,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="706" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="2" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>0</v>
@@ -24622,9 +24623,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="707" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="2" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>0</v>
@@ -24649,9 +24650,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="708" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="2" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>3</v>
@@ -24676,9 +24677,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="709" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="2" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>2</v>
@@ -24703,9 +24704,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="710" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="2" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>0</v>
@@ -24730,9 +24731,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="711" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="2" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>3</v>
@@ -24757,9 +24758,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="712" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="2" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>3</v>
@@ -24786,7 +24787,7 @@
     </row>
     <row r="713" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="2" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>3</v>
@@ -24811,9 +24812,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="714" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="2" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>2</v>
@@ -24838,9 +24839,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="715" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="2" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>2</v>
@@ -24865,9 +24866,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="716" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="2" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>2</v>
@@ -24892,9 +24893,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="717" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="2" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>2</v>
@@ -24919,9 +24920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="2" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>9</v>
@@ -24946,9 +24947,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="719" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="2" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>2</v>
@@ -24973,9 +24974,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="720" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="2" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>0</v>
@@ -25000,9 +25001,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="2" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>2</v>
@@ -25027,9 +25028,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="722" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="2" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>2</v>
@@ -25081,7 +25082,7 @@
     </row>
     <row r="724" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="2" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>0</v>
@@ -25106,9 +25107,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="725" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="2" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>2</v>
@@ -25133,9 +25134,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="726" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="2" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>2</v>
@@ -25160,9 +25161,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="727" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="2" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>2</v>
@@ -25187,9 +25188,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="728" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>3</v>
@@ -25214,9 +25215,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="729" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>0</v>
@@ -25241,9 +25242,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="730" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="2" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>2</v>
@@ -25268,9 +25269,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="731" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="2" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>11</v>
@@ -25295,9 +25296,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="732" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="2" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>0</v>
@@ -25322,9 +25323,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="733" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="2" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>2</v>
@@ -25349,9 +25350,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="734" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="2" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>3</v>
@@ -25376,9 +25377,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="735" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="2" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>11</v>
@@ -25403,9 +25404,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="736" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="2" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>3</v>
@@ -25430,9 +25431,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="737" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="2" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>11</v>
@@ -25457,9 +25458,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="738" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="2" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>3</v>
@@ -25484,9 +25485,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="739" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="2" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>11</v>
@@ -25511,9 +25512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="2" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>2</v>
@@ -25538,9 +25539,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="741" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>2</v>
@@ -25565,9 +25566,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="742" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="2" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>2</v>
@@ -25592,9 +25593,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="743" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="2" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>2</v>
@@ -25619,9 +25620,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="744" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="2" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>3</v>
@@ -25646,9 +25647,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="745" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="2" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>11</v>
@@ -25673,9 +25674,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="746" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="2" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="B746" s="3" t="s">
         <v>2</v>
@@ -25700,9 +25701,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="747" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B747" s="3" t="s">
         <v>2</v>
@@ -25727,9 +25728,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="2" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>0</v>
@@ -25754,9 +25755,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="2" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="B749" s="3" t="s">
         <v>3</v>
@@ -25781,9 +25782,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="750" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="2" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B750" s="3" t="s">
         <v>11</v>
@@ -25808,9 +25809,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="2" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>2</v>
@@ -25835,9 +25836,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="752" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="2" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>2</v>
@@ -25862,9 +25863,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="753" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="2" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>9</v>
@@ -25889,9 +25890,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="2" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>2</v>
@@ -25916,9 +25917,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="755" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="2" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B755" s="3" t="s">
         <v>11</v>
@@ -25943,9 +25944,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="756" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="2" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B756" s="3" t="s">
         <v>3</v>
@@ -25970,9 +25971,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="757" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="2" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="B757" s="3" t="s">
         <v>11</v>
@@ -25997,9 +25998,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="758" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="2" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>11</v>
@@ -26024,9 +26025,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="759" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="2" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>9</v>
@@ -26051,9 +26052,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="760" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="2" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>3</v>
@@ -26078,9 +26079,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="761" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="2" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B761" s="3" t="s">
         <v>0</v>
@@ -26105,9 +26106,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="762" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="2" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>0</v>
@@ -26132,9 +26133,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="763" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="2" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>9</v>
@@ -26159,9 +26160,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="764" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="2" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>9</v>
@@ -26186,9 +26187,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>3</v>
@@ -26213,9 +26214,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="766" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="2" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>9</v>
@@ -26240,9 +26241,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="2" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="B767" s="3" t="s">
         <v>3</v>
@@ -26267,9 +26268,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="768" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="2" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>3</v>
@@ -26294,9 +26295,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="769" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="2" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>2</v>
@@ -26321,9 +26322,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="770" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="2" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="B770" s="3" t="s">
         <v>3</v>
@@ -26348,9 +26349,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="771" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" s="2" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>2</v>
@@ -26375,9 +26376,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="772" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>11</v>
@@ -26402,9 +26403,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="2" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>3</v>
@@ -26429,9 +26430,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="774" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="2" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>2</v>
@@ -26456,9 +26457,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="775" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="2" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>2</v>
@@ -26483,9 +26484,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="776" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="2" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="B776" s="3" t="s">
         <v>0</v>
@@ -26510,9 +26511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" s="2" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>0</v>
@@ -26537,9 +26538,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="778" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" s="2" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>0</v>
@@ -26564,9 +26565,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="779" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" s="2" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>3</v>
@@ -26591,9 +26592,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="780" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="2" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B780" s="3" t="s">
         <v>0</v>
@@ -26618,9 +26619,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="781" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="2" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="B781" s="3" t="s">
         <v>3</v>
@@ -26645,9 +26646,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="782" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="2" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>3</v>
@@ -26672,9 +26673,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="2" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="B783" s="3" t="s">
         <v>0</v>
@@ -26699,9 +26700,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="784" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="2" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>0</v>
@@ -26726,9 +26727,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="785" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="2" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="B785" s="3" t="s">
         <v>0</v>
@@ -26753,9 +26754,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="786" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="2" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>0</v>
@@ -26780,9 +26781,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="787" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="2" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>2</v>
@@ -26807,9 +26808,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="788" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="2" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>3</v>
@@ -26834,9 +26835,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="789" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" s="2" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>0</v>
@@ -26863,7 +26864,7 @@
     </row>
     <row r="790" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" s="2" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>0</v>
@@ -26888,9 +26889,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="791" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>2</v>
@@ -26915,9 +26916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="2" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>11</v>
@@ -26942,9 +26943,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="793" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="2" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>2</v>
@@ -26971,7 +26972,7 @@
     </row>
     <row r="794" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="2" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>0</v>
@@ -26996,9 +26997,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="795" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="2" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>11</v>
@@ -27023,9 +27024,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="796" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="2" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>9</v>
@@ -27050,9 +27051,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="797" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="2" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="B797" s="3" t="s">
         <v>2</v>
@@ -27077,9 +27078,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="798" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="2" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>2</v>
@@ -27104,9 +27105,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="799" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="2" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>9</v>
@@ -27131,9 +27132,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="800" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="2" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>0</v>
@@ -27158,9 +27159,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="801" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="2" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>2</v>
@@ -27185,9 +27186,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="802" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="2" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>2</v>
@@ -27212,9 +27213,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="803" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" s="2" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>9</v>
@@ -27241,7 +27242,7 @@
     </row>
     <row r="804" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="2" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>2</v>
@@ -27266,9 +27267,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="805" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" s="2" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>3</v>
@@ -27293,9 +27294,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="806" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" s="2" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>2</v>
@@ -27320,9 +27321,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="807" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" s="2" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>0</v>
@@ -27347,9 +27348,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="808" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" s="2" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>2</v>
@@ -27374,9 +27375,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="809" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" s="2" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="B809" s="3" t="s">
         <v>0</v>
@@ -27401,9 +27402,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="810" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" s="2" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="B810" s="3" t="s">
         <v>3</v>
@@ -27428,9 +27429,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="811" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" s="2" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="B811" s="3" t="s">
         <v>3</v>
@@ -27455,9 +27456,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="812" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" s="2" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>2</v>
@@ -27482,9 +27483,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="813" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" s="2" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>3</v>
@@ -27509,9 +27510,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="814" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" s="2" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>3</v>
@@ -27536,9 +27537,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="815" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" s="2" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>3</v>
@@ -27563,9 +27564,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="816" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" s="2" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="B816" s="3" t="s">
         <v>2</v>
@@ -27590,9 +27591,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="817" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" s="2" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="B817" s="3" t="s">
         <v>3</v>
@@ -27617,9 +27618,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="818" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" s="2" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="B818" s="3" t="s">
         <v>0</v>
@@ -27644,9 +27645,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="819" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="2" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="B819" s="3" t="s">
         <v>2</v>
@@ -27671,9 +27672,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="820" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" s="2" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>0</v>
@@ -27698,9 +27699,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="821" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" s="2" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>2</v>
@@ -27725,9 +27726,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="822" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" s="2" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="B822" s="3" t="s">
         <v>2</v>
@@ -27777,9 +27778,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="824" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" s="2" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="B824" s="3" t="s">
         <v>0</v>
@@ -27804,9 +27805,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="825" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" s="2" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>0</v>
@@ -27831,9 +27832,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="826" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" s="2" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>9</v>
@@ -27860,7 +27861,7 @@
     </row>
     <row r="827" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" s="2" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>9</v>
@@ -27885,9 +27886,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="828" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" s="2" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>3</v>
@@ -27912,9 +27913,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="829" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" s="2" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="B829" s="3" t="s">
         <v>0</v>
@@ -27939,9 +27940,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="830" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="2" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>9</v>
@@ -27966,9 +27967,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="831" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B831" s="3" t="s">
         <v>3</v>
@@ -27993,9 +27994,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="832" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" s="2" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>3</v>
@@ -28020,9 +28021,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="833" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="B833" s="3" t="s">
         <v>9</v>
@@ -28047,9 +28048,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="834" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" s="2" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="B834" s="3" t="s">
         <v>0</v>
@@ -28074,9 +28075,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="835" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" s="2" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B835" s="3" t="s">
         <v>2</v>
@@ -28101,9 +28102,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="836" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" s="2" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="B836" s="3" t="s">
         <v>11</v>
@@ -28128,9 +28129,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="837" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="2" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="B837" s="3" t="s">
         <v>2</v>
@@ -28155,9 +28156,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="838" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" s="2" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="B838" s="3" t="s">
         <v>3</v>
@@ -28182,9 +28183,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="839" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" s="2" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>2</v>
@@ -28211,7 +28212,7 @@
     </row>
     <row r="840" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" s="2" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>2</v>
@@ -28236,9 +28237,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="841" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="B841" s="3" t="s">
         <v>0</v>
@@ -28263,9 +28264,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="842" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" s="2" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>0</v>
@@ -28290,9 +28291,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="843" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="B843" s="3" t="s">
         <v>2</v>
@@ -28317,9 +28318,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="844" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" s="2" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="B844" s="3" t="s">
         <v>2</v>
@@ -28344,9 +28345,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="845" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" s="2" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>9</v>
@@ -28371,9 +28372,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="846" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" s="2" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="B846" s="3" t="s">
         <v>0</v>
@@ -28398,9 +28399,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="847" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" s="2" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>9</v>
@@ -28425,9 +28426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" s="2" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>3</v>
@@ -28452,9 +28453,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="849" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" s="2" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="B849" s="3" t="s">
         <v>2</v>
@@ -28479,9 +28480,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="850" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>0</v>
@@ -28506,9 +28507,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="851" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" s="2" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>0</v>
@@ -28533,9 +28534,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="852" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>2</v>
@@ -28560,9 +28561,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="853" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" s="2" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>2</v>
@@ -28587,9 +28588,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="854" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" s="2" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>3</v>
@@ -28614,9 +28615,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="855" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" s="2" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="B855" s="3" t="s">
         <v>9</v>
@@ -28641,9 +28642,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="856" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" s="2" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>9</v>
@@ -28668,9 +28669,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="857" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" s="2" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="B857" s="3" t="s">
         <v>2</v>
@@ -28695,9 +28696,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="858" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="B858" s="3" t="s">
         <v>2</v>
@@ -28722,9 +28723,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="859" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>3</v>
@@ -28751,7 +28752,7 @@
     </row>
     <row r="860" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" s="2" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>3</v>
@@ -28775,6 +28776,10 @@
       <c r="I860" s="3">
         <v>2019</v>
       </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G861" s="5"/>
+      <c r="H861" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/contracts.xlsx
+++ b/data/contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmage\Desktop\MATH_437_FP\hockey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01839741-9867-4D56-9FD2-634FF63D50F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19AC85-7FC3-404E-AE46-038CA05F7A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2290,9 +2290,6 @@
     <t>Thomas Chabot </t>
   </si>
   <si>
-    <t>Philip Kessel  </t>
-  </si>
-  <si>
     <t>Brent Burns  </t>
   </si>
   <si>
@@ -2392,9 +2389,6 @@
     <t>Kevin Hayes  </t>
   </si>
   <si>
-    <t>Joshua Morrissey </t>
-  </si>
-  <si>
     <t>Evander Kane  </t>
   </si>
   <si>
@@ -2482,9 +2476,6 @@
     <t>Blake Wheeler </t>
   </si>
   <si>
-    <t>Cameron Atkinson </t>
-  </si>
-  <si>
     <t>Nick Schmaltz </t>
   </si>
   <si>
@@ -2509,9 +2500,6 @@
     <t>Gabriel Landeskog  </t>
   </si>
   <si>
-    <t>Michael Matheson </t>
-  </si>
-  <si>
     <t>Andrew Ladd  </t>
   </si>
   <si>
@@ -2641,9 +2629,6 @@
     <t>Charlie Coyle </t>
   </si>
   <si>
-    <t>Thomas Wilson </t>
-  </si>
-  <si>
     <t>Yanni Gourde  </t>
   </si>
   <si>
@@ -2665,15 +2650,9 @@
     <t>Tyler Myers  </t>
   </si>
   <si>
-    <t>Mats Zuccarello-Aasen  </t>
-  </si>
-  <si>
     <t>Morgan Rielly </t>
   </si>
   <si>
-    <t>Mathew Dumba </t>
-  </si>
-  <si>
     <t>Danny DeKeyser  </t>
   </si>
   <si>
@@ -2830,9 +2809,6 @@
     <t>Clarke MacArthur  </t>
   </si>
   <si>
-    <t>T.J. Brodie </t>
-  </si>
-  <si>
     <t>Kyle Palmieri  </t>
   </si>
   <si>
@@ -2848,9 +2824,6 @@
     <t>Artem Anisimov  </t>
   </si>
   <si>
-    <t>Jacob Muzzin </t>
-  </si>
-  <si>
     <t>Jason Demers  </t>
   </si>
   <si>
@@ -2887,9 +2860,6 @@
     <t>Tomas Tatar </t>
   </si>
   <si>
-    <t>Matthew Tkachuk </t>
-  </si>
-  <si>
     <t>Marc-Andre Fleury  </t>
   </si>
   <si>
@@ -3013,24 +2983,15 @@
     <t>Tanner Pearson </t>
   </si>
   <si>
-    <t>Zachary Werenski </t>
-  </si>
-  <si>
     <t>Alex Galchenyuk </t>
   </si>
   <si>
-    <t>Charles Mcavoy </t>
-  </si>
-  <si>
     <t>Martin Hanzal  </t>
   </si>
   <si>
     <t>Micheal Ferland  </t>
   </si>
   <si>
-    <t>J.T Compher </t>
-  </si>
-  <si>
     <t>Bryan Rust </t>
   </si>
   <si>
@@ -3076,9 +3037,6 @@
     <t>Erik Gudbranson </t>
   </si>
   <si>
-    <t>Evgeni Dadonov  </t>
-  </si>
-  <si>
     <t>Jay Beagle  </t>
   </si>
   <si>
@@ -3106,9 +3064,6 @@
     <t>Rasmus Dahlin  </t>
   </si>
   <si>
-    <t>Matthew Murray </t>
-  </si>
-  <si>
     <t>Nico Hischier  </t>
   </si>
   <si>
@@ -3532,9 +3487,6 @@
     <t>Trevor Van Riemsdyk </t>
   </si>
   <si>
-    <t>Nicholas Ritchie </t>
-  </si>
-  <si>
     <t>Anton Slepyshev  </t>
   </si>
   <si>
@@ -3655,9 +3607,6 @@
     <t>Aaron Dell </t>
   </si>
   <si>
-    <t>Matthew Benning </t>
-  </si>
-  <si>
     <t>Jordan Greenway  </t>
   </si>
   <si>
@@ -3760,9 +3709,6 @@
     <t>Tyler Pitlick </t>
   </si>
   <si>
-    <t>Vincent Hinostroza  </t>
-  </si>
-  <si>
     <t>Ryan Carpenter </t>
   </si>
   <si>
@@ -3799,9 +3745,6 @@
     <t>Jordan Oesterle </t>
   </si>
   <si>
-    <t>Matthew Grzelcyk  </t>
-  </si>
-  <si>
     <t>Lucas Carlsson  </t>
   </si>
   <si>
@@ -3814,9 +3757,6 @@
     <t>Dillon Dube  </t>
   </si>
   <si>
-    <t>Joseph Anderson  </t>
-  </si>
-  <si>
     <t>Rudolfs Balcers  </t>
   </si>
   <si>
@@ -3847,9 +3787,6 @@
     <t>Gabriel Carlsson  </t>
   </si>
   <si>
-    <t>Matthew Highmore  </t>
-  </si>
-  <si>
     <t>Rasmus Andersson  </t>
   </si>
   <si>
@@ -3946,9 +3883,6 @@
     <t>Victor Mete  </t>
   </si>
   <si>
-    <t>Matthew Peca </t>
-  </si>
-  <si>
     <t>Curtis McElhinney </t>
   </si>
   <si>
@@ -4204,9 +4138,6 @@
     <t>Nathan Gerbe </t>
   </si>
   <si>
-    <t>Theodor Blueger </t>
-  </si>
-  <si>
     <t>Calle Rosen </t>
   </si>
   <si>
@@ -4297,9 +4228,6 @@
     <t>Kurtis Macdermid  </t>
   </si>
   <si>
-    <t>Joshua Brown  </t>
-  </si>
-  <si>
     <t>Lucas Wallmark  </t>
   </si>
   <si>
@@ -4375,9 +4303,6 @@
     <t>Brian Boyle </t>
   </si>
   <si>
-    <t>Anthony DeAngelo </t>
-  </si>
-  <si>
     <t>Slater Koekkoek </t>
   </si>
   <si>
@@ -4402,9 +4327,6 @@
     <t>Robby Fabbri </t>
   </si>
   <si>
-    <t>Magnus Paajarvi-Svensson </t>
-  </si>
-  <si>
     <t>Riley Sheahan </t>
   </si>
   <si>
@@ -4652,6 +4574,84 @@
   </si>
   <si>
     <t>Alex Georgiev  </t>
+  </si>
+  <si>
+    <t>Cam Atkinson </t>
+  </si>
+  <si>
+    <t>Charlie Mcavoy </t>
+  </si>
+  <si>
+    <t>Evgenii Dadonov  </t>
+  </si>
+  <si>
+    <t>J.T. Compher </t>
+  </si>
+  <si>
+    <t>Jake Muzzin </t>
+  </si>
+  <si>
+    <t>Joey Anderson  </t>
+  </si>
+  <si>
+    <t>Josh Brown  </t>
+  </si>
+  <si>
+    <t>Josh Morrissey </t>
+  </si>
+  <si>
+    <t>Magnus Paajarvi </t>
+  </si>
+  <si>
+    <t>Mats Zuccarello  </t>
+  </si>
+  <si>
+    <t>Matt Tkachuk </t>
+  </si>
+  <si>
+    <t>Matt Murray </t>
+  </si>
+  <si>
+    <t>Matt Benning </t>
+  </si>
+  <si>
+    <t>Matt Grzelcyk  </t>
+  </si>
+  <si>
+    <t>Matt Highmore  </t>
+  </si>
+  <si>
+    <t>Matt Peca </t>
+  </si>
+  <si>
+    <t>Matt Dumba </t>
+  </si>
+  <si>
+    <t>Mike Matheson </t>
+  </si>
+  <si>
+    <t>Nick Ritchie </t>
+  </si>
+  <si>
+    <t>Phil Kessel  </t>
+  </si>
+  <si>
+    <t>Teddy Blueger </t>
+  </si>
+  <si>
+    <t>TJ Brodie </t>
+  </si>
+  <si>
+    <t>Tom Wilson </t>
+  </si>
+  <si>
+    <t>Tony Deangleo </t>
+  </si>
+  <si>
+    <t>Vinnie Hinostroza  </t>
+  </si>
+  <si>
+    <t>Zach Werenski </t>
   </si>
 </sst>
 </file>
@@ -5545,8 +5545,8 @@
   <dimension ref="A1:I861"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A295" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>216</v>
+        <v>997</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>9</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>2</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>3</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>3</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>2</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>9</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>2</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>3</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>3</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>9</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>2</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>11</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>3</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>3</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>2</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>3</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>2</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>11</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>3</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>2</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>9</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>3</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>2</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>2</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>3</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>3</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>2</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>11</v>
@@ -7372,7 +7372,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>9</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>3</v>
@@ -7426,7 +7426,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>0</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>2</v>
@@ -7480,7 +7480,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>3</v>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
-        <v>250</v>
+        <v>985</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>2</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>0</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>0</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>3</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>3</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>2</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>3</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>9</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>3</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>9</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>0</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>2</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>2</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>3</v>
@@ -7912,7 +7912,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>3</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>2</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>3</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>3</v>
@@ -8020,7 +8020,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>0</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>0</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>0</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>9</v>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>2</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>2</v>
@@ -8182,7 +8182,7 @@
     </row>
     <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>0</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>3</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>0</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>11</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>3</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>9</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>280</v>
+        <v>978</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>9</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>3</v>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>2</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>2</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>0</v>
@@ -8479,7 +8479,7 @@
     </row>
     <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>2</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>9</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="111" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>3</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>0</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
-        <v>289</v>
+        <v>995</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>2</v>
@@ -8614,7 +8614,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>0</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>2</v>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>2</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>9</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>2</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>11</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>9</v>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>2</v>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>9</v>
@@ -8857,7 +8857,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>3</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>11</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>0</v>
@@ -8938,7 +8938,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>3</v>
@@ -8965,7 +8965,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>3</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>2</v>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>0</v>
@@ -9046,7 +9046,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>3</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>3</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>2</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>0</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>3</v>
@@ -9181,7 +9181,7 @@
     </row>
     <row r="135" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>9</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>2</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>2</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>11</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>2</v>
@@ -9316,7 +9316,7 @@
     </row>
     <row r="140" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>9</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>2</v>
@@ -9370,7 +9370,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>9</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>3</v>
@@ -9424,7 +9424,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>0</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>2</v>
@@ -9505,7 +9505,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>0</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>3</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>2</v>
@@ -9586,7 +9586,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>2</v>
@@ -9613,7 +9613,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>3</v>
@@ -9640,7 +9640,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>3</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>3</v>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>2</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="155" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>2</v>
@@ -9748,7 +9748,7 @@
     </row>
     <row r="156" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>2</v>
@@ -9775,7 +9775,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>3</v>
@@ -9802,7 +9802,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>9</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>3</v>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2" t="s">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>9</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>3</v>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>2</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>11</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>3</v>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="165" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>3</v>
@@ -10018,7 +10018,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>0</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>2</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>3</v>
@@ -10099,7 +10099,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2" t="s">
-        <v>341</v>
+        <v>987</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>9</v>
@@ -10126,7 +10126,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>2</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2" t="s">
-        <v>343</v>
+        <v>994</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>2</v>
@@ -10180,7 +10180,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>2</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>3</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>3</v>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>3</v>
@@ -10288,7 +10288,7 @@
     </row>
     <row r="176" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>3</v>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>0</v>
@@ -10342,7 +10342,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>2</v>
@@ -10369,7 +10369,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>0</v>
@@ -10396,7 +10396,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>2</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>11</v>
@@ -10450,7 +10450,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="2" t="s">
-        <v>998</v>
+        <v>972</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>3</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>2</v>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>3</v>
@@ -10531,7 +10531,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>3</v>
@@ -10558,7 +10558,7 @@
     </row>
     <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>2</v>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>0</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>3</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>3</v>
@@ -10666,7 +10666,7 @@
     </row>
     <row r="190" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>9</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>0</v>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>2</v>
@@ -10774,7 +10774,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>9</v>
@@ -10801,7 +10801,7 @@
     </row>
     <row r="195" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>0</v>
@@ -10828,7 +10828,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>2</v>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>2</v>
@@ -10882,7 +10882,7 @@
     </row>
     <row r="198" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>2</v>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>3</v>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>3</v>
@@ -10963,7 +10963,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>2</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>3</v>
@@ -11017,7 +11017,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>0</v>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>3</v>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>9</v>
@@ -11098,7 +11098,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>0</v>
@@ -11125,7 +11125,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>9</v>
@@ -11152,7 +11152,7 @@
     </row>
     <row r="208" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>9</v>
@@ -11179,7 +11179,7 @@
     </row>
     <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>3</v>
@@ -11206,7 +11206,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>11</v>
@@ -11233,7 +11233,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>3</v>
@@ -11260,7 +11260,7 @@
     </row>
     <row r="212" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>2</v>
@@ -11287,7 +11287,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>2</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="214" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>2</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="215" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>9</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>2</v>
@@ -11395,7 +11395,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>11</v>
@@ -11422,7 +11422,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>2</v>
@@ -11449,7 +11449,7 @@
     </row>
     <row r="219" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>3</v>
@@ -11476,7 +11476,7 @@
     </row>
     <row r="220" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>2</v>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="221" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>2</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="222" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>3</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>0</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="224" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>3</v>
@@ -11611,7 +11611,7 @@
     </row>
     <row r="225" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>3</v>
@@ -11638,7 +11638,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>0</v>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="2" t="s">
-        <v>396</v>
+        <v>999</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>2</v>
@@ -11692,7 +11692,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>9</v>
@@ -11719,7 +11719,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>2</v>
@@ -11746,7 +11746,7 @@
     </row>
     <row r="230" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>2</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="2" t="s">
-        <v>999</v>
+        <v>973</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>0</v>
@@ -11800,7 +11800,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>3</v>
@@ -11827,7 +11827,7 @@
     </row>
     <row r="233" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>3</v>
@@ -11854,7 +11854,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="2" t="s">
-        <v>402</v>
+        <v>982</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>2</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="235" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="2" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>2</v>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>2</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>9</v>
@@ -11962,7 +11962,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="2" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>3</v>
@@ -11989,7 +11989,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>2</v>
@@ -12016,7 +12016,7 @@
     </row>
     <row r="240" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>2</v>
@@ -12043,7 +12043,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>9</v>
@@ -12070,7 +12070,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="2" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>3</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="243" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>9</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>2</v>
@@ -12151,7 +12151,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>3</v>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="246" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>0</v>
@@ -12205,7 +12205,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="2" t="s">
-        <v>415</v>
+        <v>988</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>0</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>11</v>
@@ -12259,7 +12259,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>3</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>2</v>
@@ -12313,7 +12313,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>3</v>
@@ -12340,7 +12340,7 @@
     </row>
     <row r="252" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>0</v>
@@ -12367,7 +12367,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>2</v>
@@ -12394,7 +12394,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>3</v>
@@ -12421,7 +12421,7 @@
     </row>
     <row r="255" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>3</v>
@@ -12448,7 +12448,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>2</v>
@@ -12475,7 +12475,7 @@
     </row>
     <row r="257" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="2" t="s">
-        <v>402</v>
+        <v>982</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>2</v>
@@ -12502,7 +12502,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>3</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>11</v>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="260" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>2</v>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="261" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>2</v>
@@ -12610,7 +12610,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>3</v>
@@ -12637,7 +12637,7 @@
     </row>
     <row r="263" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="2" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>2</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>3</v>
@@ -12691,7 +12691,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="2" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>9</v>
@@ -12718,7 +12718,7 @@
     </row>
     <row r="266" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>2</v>
@@ -12745,7 +12745,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>0</v>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="268" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>2</v>
@@ -12799,7 +12799,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>9</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>9</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>3</v>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>2</v>
@@ -12907,7 +12907,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>11</v>
@@ -12934,7 +12934,7 @@
     </row>
     <row r="274" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>3</v>
@@ -12961,7 +12961,7 @@
     </row>
     <row r="275" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>11</v>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>3</v>
@@ -13015,7 +13015,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>3</v>
@@ -13042,7 +13042,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>2</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>2</v>
@@ -13096,7 +13096,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>3</v>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>2</v>
@@ -13150,7 +13150,7 @@
     </row>
     <row r="282" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>2</v>
@@ -13177,7 +13177,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>2</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>2</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>2</v>
@@ -13258,7 +13258,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>0</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="287" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>0</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="288" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>3</v>
@@ -13339,7 +13339,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="2" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>9</v>
@@ -13366,7 +13366,7 @@
     </row>
     <row r="290" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>2</v>
@@ -13393,7 +13393,7 @@
     </row>
     <row r="291" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>3</v>
@@ -13420,7 +13420,7 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>3</v>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>3</v>
@@ -13474,7 +13474,7 @@
     </row>
     <row r="294" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>0</v>
@@ -13501,7 +13501,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="2" t="s">
-        <v>457</v>
+        <v>1003</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>2</v>
@@ -13528,7 +13528,7 @@
     </row>
     <row r="296" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>3</v>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="2" t="s">
-        <v>459</v>
+        <v>979</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>2</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>3</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>0</v>
@@ -13636,7 +13636,7 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="2" t="s">
-        <v>462</v>
+        <v>981</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>3</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>9</v>
@@ -13690,7 +13690,7 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="2" t="s">
-        <v>1000</v>
+        <v>974</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>3</v>
@@ -13717,7 +13717,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>9</v>
@@ -13744,7 +13744,7 @@
     </row>
     <row r="304" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>9</v>
@@ -13771,7 +13771,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>2</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>3</v>
@@ -13825,7 +13825,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>0</v>
@@ -13852,7 +13852,7 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>9</v>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>11</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="310" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="2" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>2</v>
@@ -13933,7 +13933,7 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>2</v>
@@ -13960,7 +13960,7 @@
     </row>
     <row r="312" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>3</v>
@@ -13987,7 +13987,7 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>9</v>
@@ -14014,7 +14014,7 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="2" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>2</v>
@@ -14041,7 +14041,7 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="2" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>11</v>
@@ -14068,7 +14068,7 @@
     </row>
     <row r="316" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>2</v>
@@ -14095,7 +14095,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="2" t="s">
-        <v>478</v>
+        <v>980</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>0</v>
@@ -14122,7 +14122,7 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>9</v>
@@ -14149,7 +14149,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>3</v>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>3</v>
@@ -14203,7 +14203,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>0</v>
@@ -14230,7 +14230,7 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="2" t="s">
-        <v>1001</v>
+        <v>975</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>2</v>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>0</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>3</v>
@@ -14311,7 +14311,7 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>3</v>
@@ -14338,7 +14338,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>3</v>
@@ -14365,7 +14365,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>2</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="2" t="s">
-        <v>488</v>
+        <v>989</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>11</v>
@@ -14419,7 +14419,7 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="2" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>3</v>
@@ -14446,7 +14446,7 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>2</v>
@@ -14473,7 +14473,7 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="2" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>2</v>
@@ -14500,7 +14500,7 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="2" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>3</v>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="2" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>3</v>
@@ -14554,7 +14554,7 @@
     </row>
     <row r="334" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="2" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>2</v>
@@ -14581,7 +14581,7 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="2" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>0</v>
@@ -14608,7 +14608,7 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>9</v>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="2" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>0</v>
@@ -14662,7 +14662,7 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="2" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>11</v>
@@ -14689,7 +14689,7 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="2" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>2</v>
@@ -14716,7 +14716,7 @@
     </row>
     <row r="340" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="2" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>2</v>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="2" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>9</v>
@@ -14770,7 +14770,7 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="2" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>9</v>
@@ -14797,7 +14797,7 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="2" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>9</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="344" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="2" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>0</v>
@@ -14878,7 +14878,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="2" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>2</v>
@@ -14905,7 +14905,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="2" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>3</v>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="2" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>0</v>
@@ -14959,7 +14959,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="2" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>9</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="2" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>2</v>
@@ -15013,7 +15013,7 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="2" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>0</v>
@@ -15040,7 +15040,7 @@
     </row>
     <row r="352" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="2" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>3</v>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="2" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>9</v>
@@ -15094,7 +15094,7 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>11</v>
@@ -15121,7 +15121,7 @@
     </row>
     <row r="355" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>0</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>11</v>
@@ -15175,7 +15175,7 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>2</v>
@@ -15202,7 +15202,7 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>11</v>
@@ -15229,7 +15229,7 @@
     </row>
     <row r="359" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>0</v>
@@ -15256,7 +15256,7 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>2</v>
@@ -15283,7 +15283,7 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="2" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>2</v>
@@ -15310,7 +15310,7 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="2" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>2</v>
@@ -15337,7 +15337,7 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>2</v>
@@ -15364,7 +15364,7 @@
     </row>
     <row r="364" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="2" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>0</v>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="2" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>9</v>
@@ -15418,7 +15418,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="2" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>2</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="2" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>11</v>
@@ -15472,7 +15472,7 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="2" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>9</v>
@@ -15499,7 +15499,7 @@
     </row>
     <row r="369" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="2" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>3</v>
@@ -15526,7 +15526,7 @@
     </row>
     <row r="370" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="2" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>9</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="2" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>3</v>
@@ -15580,7 +15580,7 @@
     </row>
     <row r="372" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>3</v>
@@ -15607,7 +15607,7 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="2" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>3</v>
@@ -15634,7 +15634,7 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="2" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>2</v>
@@ -15661,7 +15661,7 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="2" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>0</v>
@@ -15688,7 +15688,7 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>11</v>
@@ -15715,7 +15715,7 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="2" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>2</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="2" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>3</v>
@@ -15769,7 +15769,7 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="2" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>11</v>
@@ -15796,7 +15796,7 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="2" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>3</v>
@@ -15823,7 +15823,7 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>0</v>
@@ -15850,7 +15850,7 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="2" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>11</v>
@@ -15877,7 +15877,7 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="2" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>0</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="2" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>2</v>
@@ -15931,7 +15931,7 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="2" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>0</v>
@@ -15958,7 +15958,7 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="2" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>3</v>
@@ -15985,7 +15985,7 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="2" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>11</v>
@@ -16012,7 +16012,7 @@
     </row>
     <row r="388" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="2" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>3</v>
@@ -16039,7 +16039,7 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>2</v>
@@ -16066,7 +16066,7 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="2" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>3</v>
@@ -16093,7 +16093,7 @@
     </row>
     <row r="391" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>3</v>
@@ -16120,7 +16120,7 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="2" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>3</v>
@@ -16147,7 +16147,7 @@
     </row>
     <row r="393" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="2" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>3</v>
@@ -16174,7 +16174,7 @@
     </row>
     <row r="394" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>9</v>
@@ -16201,7 +16201,7 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="2" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>0</v>
@@ -16228,7 +16228,7 @@
     </row>
     <row r="396" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="2" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>3</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>11</v>
@@ -16282,7 +16282,7 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="2" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>9</v>
@@ -16309,7 +16309,7 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="2" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>3</v>
@@ -16336,7 +16336,7 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>2</v>
@@ -16363,7 +16363,7 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="2" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>0</v>
@@ -16390,7 +16390,7 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="2" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>3</v>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="2" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>2</v>
@@ -16444,7 +16444,7 @@
     </row>
     <row r="404" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="2" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>2</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="2" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>3</v>
@@ -16498,7 +16498,7 @@
     </row>
     <row r="406" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="2" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>2</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="2" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>2</v>
@@ -16552,7 +16552,7 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="2" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>3</v>
@@ -16579,7 +16579,7 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="2" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>0</v>
@@ -16606,7 +16606,7 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="2" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>3</v>
@@ -16633,7 +16633,7 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="2" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>9</v>
@@ -16660,7 +16660,7 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="2" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>0</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="2" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>3</v>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="2" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>2</v>
@@ -16741,7 +16741,7 @@
     </row>
     <row r="415" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="2" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>2</v>
@@ -16768,7 +16768,7 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>2</v>
@@ -16795,7 +16795,7 @@
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="2" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>2</v>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="2" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>0</v>
@@ -16849,7 +16849,7 @@
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="2" t="s">
-        <v>250</v>
+        <v>985</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>2</v>
@@ -16876,7 +16876,7 @@
     </row>
     <row r="420" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="2" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>9</v>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="2" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>11</v>
@@ -16930,7 +16930,7 @@
     </row>
     <row r="422" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="2" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>3</v>
@@ -16957,7 +16957,7 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>2</v>
@@ -16984,7 +16984,7 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>3</v>
@@ -17011,7 +17011,7 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="2" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>0</v>
@@ -17038,7 +17038,7 @@
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="2" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>0</v>
@@ -17065,7 +17065,7 @@
     </row>
     <row r="427" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="2" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>2</v>
@@ -17092,7 +17092,7 @@
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="2" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>2</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="429" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>3</v>
@@ -17146,7 +17146,7 @@
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="2" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>3</v>
@@ -17173,7 +17173,7 @@
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="2" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>9</v>
@@ -17200,7 +17200,7 @@
     </row>
     <row r="432" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="2" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>3</v>
@@ -17227,7 +17227,7 @@
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>9</v>
@@ -17254,7 +17254,7 @@
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="2" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>2</v>
@@ -17281,7 +17281,7 @@
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="2" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>2</v>
@@ -17308,7 +17308,7 @@
     </row>
     <row r="436" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>3</v>
@@ -17335,7 +17335,7 @@
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="2" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>0</v>
@@ -17362,7 +17362,7 @@
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="2" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>9</v>
@@ -17389,7 +17389,7 @@
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="2" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>9</v>
@@ -17416,7 +17416,7 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>9</v>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="2" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>2</v>
@@ -17470,7 +17470,7 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="2" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>11</v>
@@ -17497,7 +17497,7 @@
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="2" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>11</v>
@@ -17524,7 +17524,7 @@
     </row>
     <row r="444" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="2" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>3</v>
@@ -17551,7 +17551,7 @@
     </row>
     <row r="445" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="2" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>2</v>
@@ -17578,7 +17578,7 @@
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="2" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>2</v>
@@ -17605,7 +17605,7 @@
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="2" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>2</v>
@@ -17632,7 +17632,7 @@
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="2" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>2</v>
@@ -17659,7 +17659,7 @@
     </row>
     <row r="449" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="2" t="s">
-        <v>1002</v>
+        <v>976</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>9</v>
@@ -17686,7 +17686,7 @@
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="2" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>9</v>
@@ -17713,7 +17713,7 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="2" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>9</v>
@@ -17740,7 +17740,7 @@
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="2" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>11</v>
@@ -17767,7 +17767,7 @@
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="2" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>3</v>
@@ -17794,7 +17794,7 @@
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="2" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>3</v>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="2" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>11</v>
@@ -17848,7 +17848,7 @@
     </row>
     <row r="456" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="2" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>2</v>
@@ -17875,7 +17875,7 @@
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="2" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>9</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="2" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>3</v>
@@ -17929,7 +17929,7 @@
     </row>
     <row r="459" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="2" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>9</v>
@@ -17956,7 +17956,7 @@
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="2" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>11</v>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="461" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="2" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>11</v>
@@ -18010,7 +18010,7 @@
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="2" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>3</v>
@@ -18037,7 +18037,7 @@
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="2" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>3</v>
@@ -18064,7 +18064,7 @@
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="2" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>3</v>
@@ -18091,7 +18091,7 @@
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="2" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>2</v>
@@ -18118,7 +18118,7 @@
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="2" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>3</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="2" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>3</v>
@@ -18172,7 +18172,7 @@
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="2" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>2</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="2" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>0</v>
@@ -18226,7 +18226,7 @@
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="2" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>2</v>
@@ -18253,7 +18253,7 @@
     </row>
     <row r="471" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="2" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>3</v>
@@ -18280,7 +18280,7 @@
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="2" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>0</v>
@@ -18307,7 +18307,7 @@
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="2" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>3</v>
@@ -18334,7 +18334,7 @@
     </row>
     <row r="474" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="2" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>3</v>
@@ -18361,7 +18361,7 @@
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="2" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>2</v>
@@ -18388,7 +18388,7 @@
     </row>
     <row r="476" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="2" t="s">
-        <v>630</v>
+        <v>996</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>0</v>
@@ -18415,7 +18415,7 @@
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="2" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>0</v>
@@ -18442,7 +18442,7 @@
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="2" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>3</v>
@@ -18469,7 +18469,7 @@
     </row>
     <row r="479" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="2" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>0</v>
@@ -18496,7 +18496,7 @@
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="2" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>0</v>
@@ -18523,7 +18523,7 @@
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="2" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>2</v>
@@ -18550,7 +18550,7 @@
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="2" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>11</v>
@@ -18577,7 +18577,7 @@
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="2" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>2</v>
@@ -18604,7 +18604,7 @@
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="2" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>2</v>
@@ -18631,7 +18631,7 @@
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="2" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>3</v>
@@ -18658,7 +18658,7 @@
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="2" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>2</v>
@@ -18685,7 +18685,7 @@
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="2" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>3</v>
@@ -18712,7 +18712,7 @@
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="2" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>11</v>
@@ -18739,7 +18739,7 @@
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="2" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>2</v>
@@ -18766,7 +18766,7 @@
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="2" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>2</v>
@@ -18793,7 +18793,7 @@
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="2" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>3</v>
@@ -18820,7 +18820,7 @@
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="2" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>9</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="2" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>3</v>
@@ -18874,7 +18874,7 @@
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="2" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>3</v>
@@ -18901,7 +18901,7 @@
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="2" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>0</v>
@@ -18928,7 +18928,7 @@
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="2" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>0</v>
@@ -18955,7 +18955,7 @@
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="2" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>0</v>
@@ -18982,7 +18982,7 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="2" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>2</v>
@@ -19009,7 +19009,7 @@
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="2" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>0</v>
@@ -19036,7 +19036,7 @@
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="2" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>2</v>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="2" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>3</v>
@@ -19090,7 +19090,7 @@
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="2" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>9</v>
@@ -19117,7 +19117,7 @@
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="2" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>2</v>
@@ -19144,7 +19144,7 @@
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="2" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>0</v>
@@ -19171,7 +19171,7 @@
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="2" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>2</v>
@@ -19198,7 +19198,7 @@
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="2" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>0</v>
@@ -19225,7 +19225,7 @@
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="2" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>11</v>
@@ -19252,7 +19252,7 @@
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="2" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>3</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>0</v>
@@ -19306,7 +19306,7 @@
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="2" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>2</v>
@@ -19333,7 +19333,7 @@
     </row>
     <row r="511" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>2</v>
@@ -19360,7 +19360,7 @@
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="2" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>3</v>
@@ -19387,7 +19387,7 @@
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="2" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>0</v>
@@ -19414,7 +19414,7 @@
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="2" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>3</v>
@@ -19441,7 +19441,7 @@
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="2" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>9</v>
@@ -19468,7 +19468,7 @@
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="2" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>11</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="2" t="s">
-        <v>671</v>
+        <v>990</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>2</v>
@@ -19522,7 +19522,7 @@
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>11</v>
@@ -19549,7 +19549,7 @@
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="2" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>0</v>
@@ -19576,7 +19576,7 @@
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="2" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>3</v>
@@ -19603,7 +19603,7 @@
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="2" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>3</v>
@@ -19630,7 +19630,7 @@
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="2" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>0</v>
@@ -19657,7 +19657,7 @@
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="2" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>2</v>
@@ -19684,7 +19684,7 @@
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="2" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>2</v>
@@ -19711,7 +19711,7 @@
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="2" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>2</v>
@@ -19738,7 +19738,7 @@
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="2" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>3</v>
@@ -19765,7 +19765,7 @@
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="2" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>2</v>
@@ -19792,7 +19792,7 @@
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="2" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>3</v>
@@ -19819,7 +19819,7 @@
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="2" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>0</v>
@@ -19846,7 +19846,7 @@
     </row>
     <row r="530" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="2" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>3</v>
@@ -19873,7 +19873,7 @@
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="2" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>2</v>
@@ -19900,7 +19900,7 @@
     </row>
     <row r="532" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="2" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>3</v>
@@ -19927,7 +19927,7 @@
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="2" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>3</v>
@@ -19954,7 +19954,7 @@
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="2" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>2</v>
@@ -19981,7 +19981,7 @@
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="2" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>3</v>
@@ -20008,7 +20008,7 @@
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="2" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>0</v>
@@ -20035,7 +20035,7 @@
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="2" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>2</v>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="538" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="2" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>11</v>
@@ -20089,7 +20089,7 @@
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="2" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>3</v>
@@ -20116,7 +20116,7 @@
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="2" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>2</v>
@@ -20143,7 +20143,7 @@
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>3</v>
@@ -20170,7 +20170,7 @@
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="2" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>9</v>
@@ -20197,7 +20197,7 @@
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="2" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>2</v>
@@ -20224,7 +20224,7 @@
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="2" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>0</v>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="2" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>0</v>
@@ -20278,7 +20278,7 @@
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="2" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>0</v>
@@ -20305,7 +20305,7 @@
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="2" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>2</v>
@@ -20332,7 +20332,7 @@
     </row>
     <row r="548" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="2" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>2</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="2" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>2</v>
@@ -20386,7 +20386,7 @@
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="2" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>0</v>
@@ -20413,7 +20413,7 @@
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="2" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>3</v>
@@ -20440,7 +20440,7 @@
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="2" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>2</v>
@@ -20467,7 +20467,7 @@
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="2" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>0</v>
@@ -20494,7 +20494,7 @@
     </row>
     <row r="554" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="2" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>9</v>
@@ -20521,7 +20521,7 @@
     </row>
     <row r="555" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="2" t="s">
-        <v>706</v>
+        <v>1002</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>3</v>
@@ -20548,7 +20548,7 @@
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="2" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>3</v>
@@ -20575,7 +20575,7 @@
     </row>
     <row r="557" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="2" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>2</v>
@@ -20602,7 +20602,7 @@
     </row>
     <row r="558" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="2" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>3</v>
@@ -20629,7 +20629,7 @@
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="2" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>9</v>
@@ -20656,7 +20656,7 @@
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="2" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>9</v>
@@ -20683,7 +20683,7 @@
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="2" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>3</v>
@@ -20710,7 +20710,7 @@
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="2" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>3</v>
@@ -20737,7 +20737,7 @@
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="2" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>3</v>
@@ -20764,7 +20764,7 @@
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="2" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>2</v>
@@ -20791,7 +20791,7 @@
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="2" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>3</v>
@@ -20818,7 +20818,7 @@
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="2" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>0</v>
@@ -20845,7 +20845,7 @@
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="2" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>2</v>
@@ -20872,7 +20872,7 @@
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="2" t="s">
-        <v>719</v>
+        <v>991</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>2</v>
@@ -20899,7 +20899,7 @@
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="2" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>2</v>
@@ -20926,7 +20926,7 @@
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="2" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>0</v>
@@ -20953,7 +20953,7 @@
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="2" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>2</v>
@@ -20980,7 +20980,7 @@
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="2" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>3</v>
@@ -21007,7 +21007,7 @@
     </row>
     <row r="573" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>0</v>
@@ -21034,7 +21034,7 @@
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="2" t="s">
-        <v>724</v>
+        <v>983</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>9</v>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="575" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="2" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>0</v>
@@ -21088,7 +21088,7 @@
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="2" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>2</v>
@@ -21115,7 +21115,7 @@
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="2" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>2</v>
@@ -21142,7 +21142,7 @@
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="2" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>3</v>
@@ -21169,7 +21169,7 @@
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="2" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>2</v>
@@ -21196,7 +21196,7 @@
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="2" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>3</v>
@@ -21223,7 +21223,7 @@
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="2" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>0</v>
@@ -21250,7 +21250,7 @@
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="2" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>2</v>
@@ -21277,7 +21277,7 @@
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="2" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>3</v>
@@ -21304,7 +21304,7 @@
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="2" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>2</v>
@@ -21331,7 +21331,7 @@
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="2" t="s">
-        <v>735</v>
+        <v>992</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>3</v>
@@ -21358,7 +21358,7 @@
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="2" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>2</v>
@@ -21385,7 +21385,7 @@
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="2" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>2</v>
@@ -21412,7 +21412,7 @@
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="2" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>3</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="2" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>3</v>
@@ -21466,7 +21466,7 @@
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="2" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>3</v>
@@ -21493,7 +21493,7 @@
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="2" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>9</v>
@@ -21520,7 +21520,7 @@
     </row>
     <row r="592" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="2" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>2</v>
@@ -21547,7 +21547,7 @@
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="2" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>11</v>
@@ -21574,7 +21574,7 @@
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="2" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>2</v>
@@ -21601,7 +21601,7 @@
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="2" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>0</v>
@@ -21628,7 +21628,7 @@
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="2" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>0</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="2" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>0</v>
@@ -21682,7 +21682,7 @@
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="2" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>3</v>
@@ -21709,7 +21709,7 @@
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="2" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>11</v>
@@ -21736,7 +21736,7 @@
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="2" t="s">
-        <v>1003</v>
+        <v>977</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>11</v>
@@ -21763,7 +21763,7 @@
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="2" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>9</v>
@@ -21790,7 +21790,7 @@
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="2" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>0</v>
@@ -21817,7 +21817,7 @@
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="2" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>2</v>
@@ -21844,7 +21844,7 @@
     </row>
     <row r="604" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="2" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>3</v>
@@ -21871,7 +21871,7 @@
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="2" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>3</v>
@@ -21898,7 +21898,7 @@
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="2" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>3</v>
@@ -21925,7 +21925,7 @@
     </row>
     <row r="607" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="2" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="2" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>0</v>
@@ -21979,7 +21979,7 @@
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="2" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>3</v>
@@ -22006,7 +22006,7 @@
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="2" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>2</v>
@@ -22033,7 +22033,7 @@
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="2" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>2</v>
@@ -22060,7 +22060,7 @@
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="2" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>11</v>
@@ -22087,7 +22087,7 @@
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="2" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>2</v>
@@ -22114,7 +22114,7 @@
     </row>
     <row r="614" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="2" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>2</v>
@@ -22141,7 +22141,7 @@
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="2" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>2</v>
@@ -22168,7 +22168,7 @@
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="2" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>2</v>
@@ -22195,7 +22195,7 @@
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="2" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>2</v>
@@ -22222,7 +22222,7 @@
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="2" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>2</v>
@@ -22249,7 +22249,7 @@
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="2" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>2</v>
@@ -22276,7 +22276,7 @@
     </row>
     <row r="620" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="2" t="s">
-        <v>768</v>
+        <v>993</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>3</v>
@@ -22303,7 +22303,7 @@
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="2" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>11</v>
@@ -22330,7 +22330,7 @@
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="2" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>3</v>
@@ -22357,7 +22357,7 @@
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="2" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>11</v>
@@ -22384,7 +22384,7 @@
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="2" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>3</v>
@@ -22411,7 +22411,7 @@
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="2" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>3</v>
@@ -22438,7 +22438,7 @@
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="2" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="B626" s="3" t="s">
         <v>0</v>
@@ -22465,7 +22465,7 @@
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="2" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>2</v>
@@ -22492,7 +22492,7 @@
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="2" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>9</v>
@@ -22519,7 +22519,7 @@
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="2" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>3</v>
@@ -22546,7 +22546,7 @@
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="2" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>0</v>
@@ -22573,7 +22573,7 @@
     </row>
     <row r="631" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="2" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="B631" s="3" t="s">
         <v>0</v>
@@ -22600,7 +22600,7 @@
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="2" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>0</v>
@@ -22627,7 +22627,7 @@
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="2" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="B633" s="3" t="s">
         <v>2</v>
@@ -22654,7 +22654,7 @@
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="2" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>0</v>
@@ -22681,7 +22681,7 @@
     </row>
     <row r="635" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="2" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>2</v>
@@ -22708,7 +22708,7 @@
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="2" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>3</v>
@@ -22735,7 +22735,7 @@
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="2" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>0</v>
@@ -22762,7 +22762,7 @@
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="2" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>2</v>
@@ -22789,7 +22789,7 @@
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="2" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>11</v>
@@ -22816,7 +22816,7 @@
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="2" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>3</v>
@@ -22843,7 +22843,7 @@
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="2" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>2</v>
@@ -22870,7 +22870,7 @@
     </row>
     <row r="642" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="2" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>11</v>
@@ -22897,7 +22897,7 @@
     </row>
     <row r="643" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="2" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>3</v>
@@ -22924,7 +22924,7 @@
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="2" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>3</v>
@@ -22951,7 +22951,7 @@
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="2" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="B645" s="3" t="s">
         <v>2</v>
@@ -22978,7 +22978,7 @@
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="2" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>3</v>
@@ -23005,7 +23005,7 @@
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="2" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>3</v>
@@ -23032,7 +23032,7 @@
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="2" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>2</v>
@@ -23059,7 +23059,7 @@
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="2" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>3</v>
@@ -23086,7 +23086,7 @@
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="2" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>11</v>
@@ -23113,7 +23113,7 @@
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="2" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>2</v>
@@ -23140,7 +23140,7 @@
     </row>
     <row r="652" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="2" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>2</v>
@@ -23167,7 +23167,7 @@
     </row>
     <row r="653" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="2" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="B653" s="3" t="s">
         <v>2</v>
@@ -23194,7 +23194,7 @@
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="2" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>2</v>
@@ -23221,7 +23221,7 @@
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="2" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>11</v>
@@ -23248,7 +23248,7 @@
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="2" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>11</v>
@@ -23275,7 +23275,7 @@
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="2" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>2</v>
@@ -23302,7 +23302,7 @@
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="2" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>11</v>
@@ -23329,7 +23329,7 @@
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="2" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>2</v>
@@ -23356,7 +23356,7 @@
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="2" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>3</v>
@@ -23383,7 +23383,7 @@
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="2" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="B661" s="3" t="s">
         <v>2</v>
@@ -23410,7 +23410,7 @@
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="2" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="B662" s="3" t="s">
         <v>2</v>
@@ -23437,7 +23437,7 @@
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="2" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>11</v>
@@ -23464,7 +23464,7 @@
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="2" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>11</v>
@@ -23491,7 +23491,7 @@
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="2" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="B665" s="3" t="s">
         <v>0</v>
@@ -23518,7 +23518,7 @@
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="2" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="B666" s="3" t="s">
         <v>3</v>
@@ -23545,7 +23545,7 @@
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="2" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>3</v>
@@ -23572,7 +23572,7 @@
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="2" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>0</v>
@@ -23599,7 +23599,7 @@
     </row>
     <row r="669" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="2" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>0</v>
@@ -23626,7 +23626,7 @@
     </row>
     <row r="670" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="2" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>2</v>
@@ -23653,7 +23653,7 @@
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="2" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="B671" s="3" t="s">
         <v>3</v>
@@ -23680,7 +23680,7 @@
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="2" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>0</v>
@@ -23707,7 +23707,7 @@
     </row>
     <row r="673" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="2" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>2</v>
@@ -23734,7 +23734,7 @@
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="2" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>2</v>
@@ -23761,7 +23761,7 @@
     </row>
     <row r="675" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="2" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>0</v>
@@ -23788,7 +23788,7 @@
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="2" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>0</v>
@@ -23815,7 +23815,7 @@
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="2" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>3</v>
@@ -23842,7 +23842,7 @@
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="2" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>2</v>
@@ -23869,7 +23869,7 @@
     </row>
     <row r="679" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="2" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>0</v>
@@ -23896,7 +23896,7 @@
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="2" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>3</v>
@@ -23923,7 +23923,7 @@
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="2" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>2</v>
@@ -23950,7 +23950,7 @@
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="2" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>9</v>
@@ -23977,7 +23977,7 @@
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="2" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>3</v>
@@ -24004,7 +24004,7 @@
     </row>
     <row r="684" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="2" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>2</v>
@@ -24031,7 +24031,7 @@
     </row>
     <row r="685" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="2" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>0</v>
@@ -24058,7 +24058,7 @@
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="2" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>2</v>
@@ -24085,7 +24085,7 @@
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="2" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>0</v>
@@ -24112,7 +24112,7 @@
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="2" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>0</v>
@@ -24139,7 +24139,7 @@
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="2" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>2</v>
@@ -24166,7 +24166,7 @@
     </row>
     <row r="690" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="2" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>11</v>
@@ -24193,7 +24193,7 @@
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="2" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>2</v>
@@ -24220,7 +24220,7 @@
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="2" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>2</v>
@@ -24247,7 +24247,7 @@
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="2" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>3</v>
@@ -24274,7 +24274,7 @@
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="2" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>2</v>
@@ -24301,7 +24301,7 @@
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="2" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>11</v>
@@ -24328,7 +24328,7 @@
     </row>
     <row r="696" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="2" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>2</v>
@@ -24355,7 +24355,7 @@
     </row>
     <row r="697" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="2" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>2</v>
@@ -24382,7 +24382,7 @@
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="2" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>3</v>
@@ -24409,7 +24409,7 @@
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="2" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>0</v>
@@ -24436,7 +24436,7 @@
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="2" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>0</v>
@@ -24463,7 +24463,7 @@
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="2" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>2</v>
@@ -24490,7 +24490,7 @@
     </row>
     <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="2" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>2</v>
@@ -24517,7 +24517,7 @@
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="2" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>3</v>
@@ -24544,7 +24544,7 @@
     </row>
     <row r="704" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="2" t="s">
-        <v>850</v>
+        <v>828</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>0</v>
@@ -24571,7 +24571,7 @@
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="2" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>9</v>
@@ -24598,7 +24598,7 @@
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="2" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>0</v>
@@ -24625,7 +24625,7 @@
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="2" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>0</v>
@@ -24652,7 +24652,7 @@
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="2" t="s">
-        <v>854</v>
+        <v>998</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>3</v>
@@ -24679,7 +24679,7 @@
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="2" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>2</v>
@@ -24706,7 +24706,7 @@
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="2" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>0</v>
@@ -24733,7 +24733,7 @@
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="2" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>3</v>
@@ -24760,7 +24760,7 @@
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="2" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>3</v>
@@ -24787,7 +24787,7 @@
     </row>
     <row r="713" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="2" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>3</v>
@@ -24814,7 +24814,7 @@
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="2" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>2</v>
@@ -24841,7 +24841,7 @@
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="2" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>2</v>
@@ -24868,7 +24868,7 @@
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="2" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>2</v>
@@ -24895,7 +24895,7 @@
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="2" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>2</v>
@@ -24922,7 +24922,7 @@
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="2" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>9</v>
@@ -24949,7 +24949,7 @@
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="2" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>2</v>
@@ -24976,7 +24976,7 @@
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="2" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>0</v>
@@ -25003,7 +25003,7 @@
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="2" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>2</v>
@@ -25030,7 +25030,7 @@
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="2" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>2</v>
@@ -25082,7 +25082,7 @@
     </row>
     <row r="724" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="2" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>0</v>
@@ -25109,7 +25109,7 @@
     </row>
     <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="2" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>2</v>
@@ -25136,7 +25136,7 @@
     </row>
     <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="2" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>2</v>
@@ -25163,7 +25163,7 @@
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="2" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>2</v>
@@ -25190,7 +25190,7 @@
     </row>
     <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="2" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>3</v>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="2" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>0</v>
@@ -25244,7 +25244,7 @@
     </row>
     <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="2" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>2</v>
@@ -25271,7 +25271,7 @@
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="2" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>11</v>
@@ -25298,7 +25298,7 @@
     </row>
     <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="2" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>0</v>
@@ -25325,7 +25325,7 @@
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="2" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>2</v>
@@ -25352,7 +25352,7 @@
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="2" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>3</v>
@@ -25379,7 +25379,7 @@
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="2" t="s">
-        <v>878</v>
+        <v>855</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>11</v>
@@ -25406,7 +25406,7 @@
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="2" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>3</v>
@@ -25433,7 +25433,7 @@
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="2" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>11</v>
@@ -25460,7 +25460,7 @@
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="2" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>3</v>
@@ -25487,7 +25487,7 @@
     </row>
     <row r="739" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="2" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>11</v>
@@ -25514,7 +25514,7 @@
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="2" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>2</v>
@@ -25541,7 +25541,7 @@
     </row>
     <row r="741" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="2" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>2</v>
@@ -25568,7 +25568,7 @@
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="2" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>2</v>
@@ -25595,7 +25595,7 @@
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="2" t="s">
-        <v>885</v>
+        <v>984</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>2</v>
@@ -25622,7 +25622,7 @@
     </row>
     <row r="744" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="2" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>3</v>
@@ -25649,7 +25649,7 @@
     </row>
     <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="2" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>11</v>
@@ -25676,7 +25676,7 @@
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="2" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="B746" s="3" t="s">
         <v>2</v>
@@ -25703,7 +25703,7 @@
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="2" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B747" s="3" t="s">
         <v>2</v>
@@ -25730,7 +25730,7 @@
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="2" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>0</v>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="2" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="B749" s="3" t="s">
         <v>3</v>
@@ -25784,7 +25784,7 @@
     </row>
     <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="2" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="B750" s="3" t="s">
         <v>11</v>
@@ -25811,7 +25811,7 @@
     </row>
     <row r="751" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="2" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>2</v>
@@ -25838,7 +25838,7 @@
     </row>
     <row r="752" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="2" t="s">
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>2</v>
@@ -25865,7 +25865,7 @@
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="2" t="s">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>9</v>
@@ -25892,7 +25892,7 @@
     </row>
     <row r="754" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="2" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>2</v>
@@ -25919,7 +25919,7 @@
     </row>
     <row r="755" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="2" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="B755" s="3" t="s">
         <v>11</v>
@@ -25946,7 +25946,7 @@
     </row>
     <row r="756" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="2" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="B756" s="3" t="s">
         <v>3</v>
@@ -25973,7 +25973,7 @@
     </row>
     <row r="757" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="2" t="s">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="B757" s="3" t="s">
         <v>11</v>
@@ -26000,7 +26000,7 @@
     </row>
     <row r="758" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="2" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>11</v>
@@ -26027,7 +26027,7 @@
     </row>
     <row r="759" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="2" t="s">
-        <v>899</v>
+        <v>875</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>9</v>
@@ -26054,7 +26054,7 @@
     </row>
     <row r="760" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="2" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>3</v>
@@ -26081,7 +26081,7 @@
     </row>
     <row r="761" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="2" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="B761" s="3" t="s">
         <v>0</v>
@@ -26108,7 +26108,7 @@
     </row>
     <row r="762" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="2" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>0</v>
@@ -26135,7 +26135,7 @@
     </row>
     <row r="763" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="2" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>9</v>
@@ -26162,7 +26162,7 @@
     </row>
     <row r="764" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="2" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>9</v>
@@ -26189,7 +26189,7 @@
     </row>
     <row r="765" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="2" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>3</v>
@@ -26216,7 +26216,7 @@
     </row>
     <row r="766" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="2" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>9</v>
@@ -26243,7 +26243,7 @@
     </row>
     <row r="767" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="2" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="B767" s="3" t="s">
         <v>3</v>
@@ -26270,7 +26270,7 @@
     </row>
     <row r="768" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="2" t="s">
-        <v>906</v>
+        <v>882</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>3</v>
@@ -26297,7 +26297,7 @@
     </row>
     <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="2" t="s">
-        <v>907</v>
+        <v>883</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>2</v>
@@ -26324,7 +26324,7 @@
     </row>
     <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="2" t="s">
-        <v>908</v>
+        <v>884</v>
       </c>
       <c r="B770" s="3" t="s">
         <v>3</v>
@@ -26351,7 +26351,7 @@
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" s="2" t="s">
-        <v>909</v>
+        <v>885</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>2</v>
@@ -26378,7 +26378,7 @@
     </row>
     <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="2" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>11</v>
@@ -26405,7 +26405,7 @@
     </row>
     <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="2" t="s">
-        <v>910</v>
+        <v>886</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>3</v>
@@ -26432,7 +26432,7 @@
     </row>
     <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="2" t="s">
-        <v>911</v>
+        <v>1001</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>2</v>
@@ -26459,7 +26459,7 @@
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="2" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>2</v>
@@ -26486,7 +26486,7 @@
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="2" t="s">
-        <v>913</v>
+        <v>888</v>
       </c>
       <c r="B776" s="3" t="s">
         <v>0</v>
@@ -26513,7 +26513,7 @@
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" s="2" t="s">
-        <v>914</v>
+        <v>889</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>0</v>
@@ -26540,7 +26540,7 @@
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" s="2" t="s">
-        <v>915</v>
+        <v>890</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>0</v>
@@ -26567,7 +26567,7 @@
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" s="2" t="s">
-        <v>916</v>
+        <v>891</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>3</v>
@@ -26594,7 +26594,7 @@
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="2" t="s">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="B780" s="3" t="s">
         <v>0</v>
@@ -26621,7 +26621,7 @@
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="2" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="B781" s="3" t="s">
         <v>3</v>
@@ -26648,7 +26648,7 @@
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="2" t="s">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>3</v>
@@ -26675,7 +26675,7 @@
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="2" t="s">
-        <v>920</v>
+        <v>986</v>
       </c>
       <c r="B783" s="3" t="s">
         <v>0</v>
@@ -26702,7 +26702,7 @@
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="2" t="s">
-        <v>921</v>
+        <v>895</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>0</v>
@@ -26729,7 +26729,7 @@
     </row>
     <row r="785" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="2" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="B785" s="3" t="s">
         <v>0</v>
@@ -26756,7 +26756,7 @@
     </row>
     <row r="786" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="2" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>0</v>
@@ -26783,7 +26783,7 @@
     </row>
     <row r="787" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="2" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>2</v>
@@ -26810,7 +26810,7 @@
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="2" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>3</v>
@@ -26837,7 +26837,7 @@
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" s="2" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>0</v>
@@ -26864,7 +26864,7 @@
     </row>
     <row r="790" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" s="2" t="s">
-        <v>926</v>
+        <v>900</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>0</v>
@@ -26891,7 +26891,7 @@
     </row>
     <row r="791" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>2</v>
@@ -26918,7 +26918,7 @@
     </row>
     <row r="792" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="2" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>11</v>
@@ -26945,7 +26945,7 @@
     </row>
     <row r="793" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="2" t="s">
-        <v>928</v>
+        <v>902</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>2</v>
@@ -26972,7 +26972,7 @@
     </row>
     <row r="794" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="2" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>0</v>
@@ -26999,7 +26999,7 @@
     </row>
     <row r="795" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="2" t="s">
-        <v>930</v>
+        <v>904</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>11</v>
@@ -27026,7 +27026,7 @@
     </row>
     <row r="796" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="2" t="s">
-        <v>931</v>
+        <v>905</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>9</v>
@@ -27053,7 +27053,7 @@
     </row>
     <row r="797" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="2" t="s">
-        <v>932</v>
+        <v>906</v>
       </c>
       <c r="B797" s="3" t="s">
         <v>2</v>
@@ -27080,7 +27080,7 @@
     </row>
     <row r="798" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="2" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>2</v>
@@ -27107,7 +27107,7 @@
     </row>
     <row r="799" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="2" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>9</v>
@@ -27134,7 +27134,7 @@
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="2" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>0</v>
@@ -27161,7 +27161,7 @@
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="2" t="s">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>2</v>
@@ -27188,7 +27188,7 @@
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="2" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>2</v>
@@ -27215,7 +27215,7 @@
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" s="2" t="s">
-        <v>938</v>
+        <v>912</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>9</v>
@@ -27242,7 +27242,7 @@
     </row>
     <row r="804" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="2" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>2</v>
@@ -27269,7 +27269,7 @@
     </row>
     <row r="805" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" s="2" t="s">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>3</v>
@@ -27296,7 +27296,7 @@
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" s="2" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>2</v>
@@ -27323,7 +27323,7 @@
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" s="2" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>0</v>
@@ -27350,7 +27350,7 @@
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" s="2" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>2</v>
@@ -27377,7 +27377,7 @@
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" s="2" t="s">
-        <v>944</v>
+        <v>918</v>
       </c>
       <c r="B809" s="3" t="s">
         <v>0</v>
@@ -27404,7 +27404,7 @@
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" s="2" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="B810" s="3" t="s">
         <v>3</v>
@@ -27431,7 +27431,7 @@
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" s="2" t="s">
-        <v>946</v>
+        <v>920</v>
       </c>
       <c r="B811" s="3" t="s">
         <v>3</v>
@@ -27458,7 +27458,7 @@
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" s="2" t="s">
-        <v>947</v>
+        <v>921</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>2</v>
@@ -27485,7 +27485,7 @@
     </row>
     <row r="813" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" s="2" t="s">
-        <v>948</v>
+        <v>922</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>3</v>
@@ -27512,7 +27512,7 @@
     </row>
     <row r="814" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" s="2" t="s">
-        <v>949</v>
+        <v>923</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>3</v>
@@ -27539,7 +27539,7 @@
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" s="2" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>3</v>
@@ -27566,7 +27566,7 @@
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" s="2" t="s">
-        <v>951</v>
+        <v>925</v>
       </c>
       <c r="B816" s="3" t="s">
         <v>2</v>
@@ -27593,7 +27593,7 @@
     </row>
     <row r="817" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" s="2" t="s">
-        <v>952</v>
+        <v>926</v>
       </c>
       <c r="B817" s="3" t="s">
         <v>3</v>
@@ -27620,7 +27620,7 @@
     </row>
     <row r="818" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" s="2" t="s">
-        <v>953</v>
+        <v>927</v>
       </c>
       <c r="B818" s="3" t="s">
         <v>0</v>
@@ -27647,7 +27647,7 @@
     </row>
     <row r="819" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="2" t="s">
-        <v>954</v>
+        <v>928</v>
       </c>
       <c r="B819" s="3" t="s">
         <v>2</v>
@@ -27674,7 +27674,7 @@
     </row>
     <row r="820" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" s="2" t="s">
-        <v>955</v>
+        <v>929</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>0</v>
@@ -27701,7 +27701,7 @@
     </row>
     <row r="821" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" s="2" t="s">
-        <v>956</v>
+        <v>930</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>2</v>
@@ -27728,7 +27728,7 @@
     </row>
     <row r="822" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" s="2" t="s">
-        <v>957</v>
+        <v>931</v>
       </c>
       <c r="B822" s="3" t="s">
         <v>2</v>
@@ -27780,7 +27780,7 @@
     </row>
     <row r="824" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" s="2" t="s">
-        <v>958</v>
+        <v>932</v>
       </c>
       <c r="B824" s="3" t="s">
         <v>0</v>
@@ -27807,7 +27807,7 @@
     </row>
     <row r="825" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" s="2" t="s">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>0</v>
@@ -27834,7 +27834,7 @@
     </row>
     <row r="826" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" s="2" t="s">
-        <v>960</v>
+        <v>934</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>9</v>
@@ -27861,7 +27861,7 @@
     </row>
     <row r="827" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" s="2" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>9</v>
@@ -27888,7 +27888,7 @@
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" s="2" t="s">
-        <v>962</v>
+        <v>936</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>3</v>
@@ -27915,7 +27915,7 @@
     </row>
     <row r="829" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" s="2" t="s">
-        <v>963</v>
+        <v>937</v>
       </c>
       <c r="B829" s="3" t="s">
         <v>0</v>
@@ -27942,7 +27942,7 @@
     </row>
     <row r="830" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="2" t="s">
-        <v>964</v>
+        <v>938</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>9</v>
@@ -27969,7 +27969,7 @@
     </row>
     <row r="831" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B831" s="3" t="s">
         <v>3</v>
@@ -27996,7 +27996,7 @@
     </row>
     <row r="832" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" s="2" t="s">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>3</v>
@@ -28023,7 +28023,7 @@
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" s="2" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="B833" s="3" t="s">
         <v>9</v>
@@ -28050,7 +28050,7 @@
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" s="2" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="B834" s="3" t="s">
         <v>0</v>
@@ -28077,7 +28077,7 @@
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" s="2" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="B835" s="3" t="s">
         <v>2</v>
@@ -28104,7 +28104,7 @@
     </row>
     <row r="836" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" s="2" t="s">
-        <v>969</v>
+        <v>943</v>
       </c>
       <c r="B836" s="3" t="s">
         <v>11</v>
@@ -28131,7 +28131,7 @@
     </row>
     <row r="837" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="2" t="s">
-        <v>970</v>
+        <v>944</v>
       </c>
       <c r="B837" s="3" t="s">
         <v>2</v>
@@ -28158,7 +28158,7 @@
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" s="2" t="s">
-        <v>971</v>
+        <v>945</v>
       </c>
       <c r="B838" s="3" t="s">
         <v>3</v>
@@ -28185,7 +28185,7 @@
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" s="2" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>2</v>
@@ -28212,7 +28212,7 @@
     </row>
     <row r="840" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" s="2" t="s">
-        <v>973</v>
+        <v>947</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>2</v>
@@ -28239,7 +28239,7 @@
     </row>
     <row r="841" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" s="2" t="s">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="B841" s="3" t="s">
         <v>0</v>
@@ -28266,7 +28266,7 @@
     </row>
     <row r="842" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" s="2" t="s">
-        <v>975</v>
+        <v>949</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>0</v>
@@ -28293,7 +28293,7 @@
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" s="2" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
       <c r="B843" s="3" t="s">
         <v>2</v>
@@ -28320,7 +28320,7 @@
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" s="2" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="B844" s="3" t="s">
         <v>2</v>
@@ -28347,7 +28347,7 @@
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" s="2" t="s">
-        <v>978</v>
+        <v>952</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>9</v>
@@ -28374,7 +28374,7 @@
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" s="2" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="B846" s="3" t="s">
         <v>0</v>
@@ -28401,7 +28401,7 @@
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" s="2" t="s">
-        <v>980</v>
+        <v>954</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>9</v>
@@ -28428,7 +28428,7 @@
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" s="2" t="s">
-        <v>981</v>
+        <v>955</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>3</v>
@@ -28455,7 +28455,7 @@
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" s="2" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="B849" s="3" t="s">
         <v>2</v>
@@ -28482,7 +28482,7 @@
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" s="2" t="s">
-        <v>983</v>
+        <v>957</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>0</v>
@@ -28509,7 +28509,7 @@
     </row>
     <row r="851" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" s="2" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>0</v>
@@ -28536,7 +28536,7 @@
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" s="2" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>2</v>
@@ -28563,7 +28563,7 @@
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" s="2" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>2</v>
@@ -28590,7 +28590,7 @@
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" s="2" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>3</v>
@@ -28617,7 +28617,7 @@
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" s="2" t="s">
-        <v>988</v>
+        <v>962</v>
       </c>
       <c r="B855" s="3" t="s">
         <v>9</v>
@@ -28644,7 +28644,7 @@
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" s="2" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>9</v>
@@ -28671,7 +28671,7 @@
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" s="2" t="s">
-        <v>990</v>
+        <v>964</v>
       </c>
       <c r="B857" s="3" t="s">
         <v>2</v>
@@ -28698,7 +28698,7 @@
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" s="2" t="s">
-        <v>991</v>
+        <v>965</v>
       </c>
       <c r="B858" s="3" t="s">
         <v>2</v>
@@ -28725,7 +28725,7 @@
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" s="2" t="s">
-        <v>992</v>
+        <v>966</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>3</v>
@@ -28752,7 +28752,7 @@
     </row>
     <row r="860" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" s="2" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>3</v>

--- a/data/contracts.xlsx
+++ b/data/contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmage\Desktop\MATH_437_FP\hockey\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19AC85-7FC3-404E-AE46-038CA05F7A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02629B2-0EBC-4E72-92F3-D440D8D6AB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5546,7 +5546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A295" sqref="A295"/>
+      <selection pane="bottomLeft" activeCell="J303" sqref="J303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
